--- a/AAII_Financials/Yearly/QK_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QK_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -712,10 +712,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>127700</v>
+        <v>124600</v>
       </c>
       <c r="E8" s="3">
-        <v>75000</v>
+        <v>73200</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -739,10 +739,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>145600</v>
+        <v>142100</v>
       </c>
       <c r="E9" s="3">
-        <v>81400</v>
+        <v>79400</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -766,10 +766,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-18000</v>
+        <v>-17500</v>
       </c>
       <c r="E10" s="3">
-        <v>-6400</v>
+        <v>-6300</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>7500</v>
+        <v>7300</v>
       </c>
       <c r="E12" s="3">
-        <v>6300</v>
+        <v>6200</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
@@ -860,10 +860,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>7300</v>
+        <v>7100</v>
       </c>
       <c r="E14" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -924,10 +924,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>188900</v>
+        <v>184200</v>
       </c>
       <c r="E17" s="3">
-        <v>102200</v>
+        <v>99700</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -951,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-61200</v>
+        <v>-59700</v>
       </c>
       <c r="E18" s="3">
-        <v>-27200</v>
+        <v>-26500</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -1018,10 +1018,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-38100</v>
+        <v>-37200</v>
       </c>
       <c r="E21" s="3">
-        <v>-13300</v>
+        <v>-13000</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>11400</v>
+        <v>11200</v>
       </c>
       <c r="E22" s="3">
-        <v>7200</v>
+        <v>7000</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1072,10 +1072,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-71400</v>
+        <v>-69600</v>
       </c>
       <c r="E23" s="3">
-        <v>-35100</v>
+        <v>-34300</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1153,10 +1153,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-71700</v>
+        <v>-70000</v>
       </c>
       <c r="E26" s="3">
-        <v>-35200</v>
+        <v>-34400</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1180,10 +1180,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-91200</v>
+        <v>-88900</v>
       </c>
       <c r="E27" s="3">
-        <v>-43700</v>
+        <v>-42600</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1342,10 +1342,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-91200</v>
+        <v>-88900</v>
       </c>
       <c r="E33" s="3">
-        <v>-43700</v>
+        <v>-42600</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1396,10 +1396,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-91200</v>
+        <v>-88900</v>
       </c>
       <c r="E35" s="3">
-        <v>-43700</v>
+        <v>-42600</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1481,10 +1481,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14900</v>
+        <v>14500</v>
       </c>
       <c r="E41" s="3">
-        <v>52400</v>
+        <v>51200</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1535,10 +1535,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>22700</v>
+        <v>22200</v>
       </c>
       <c r="E43" s="3">
-        <v>11800</v>
+        <v>11500</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1589,10 +1589,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>26600</v>
+        <v>26000</v>
       </c>
       <c r="E45" s="3">
-        <v>13600</v>
+        <v>13300</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1616,10 +1616,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>64300</v>
+        <v>62800</v>
       </c>
       <c r="E46" s="3">
-        <v>77800</v>
+        <v>76000</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1670,10 +1670,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>189500</v>
+        <v>185100</v>
       </c>
       <c r="E48" s="3">
-        <v>83000</v>
+        <v>81100</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1697,10 +1697,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E49" s="3">
         <v>1800</v>
-      </c>
-      <c r="E49" s="3">
-        <v>1900</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1832,10 +1832,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>255600</v>
+        <v>249700</v>
       </c>
       <c r="E54" s="3">
-        <v>162600</v>
+        <v>158900</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1885,10 +1885,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>61800</v>
+        <v>60400</v>
       </c>
       <c r="E57" s="3">
-        <v>16300</v>
+        <v>16000</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1912,10 +1912,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>177900</v>
+        <v>173800</v>
       </c>
       <c r="E58" s="3">
-        <v>123100</v>
+        <v>120300</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -1939,10 +1939,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>42900</v>
+        <v>41900</v>
       </c>
       <c r="E59" s="3">
-        <v>28900</v>
+        <v>28200</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -1966,10 +1966,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>282600</v>
+        <v>276100</v>
       </c>
       <c r="E60" s="3">
-        <v>168300</v>
+        <v>164400</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -1993,10 +1993,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>23700</v>
+        <v>23200</v>
       </c>
       <c r="E61" s="3">
-        <v>26200</v>
+        <v>25600</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>61000</v>
+        <v>59600</v>
       </c>
       <c r="E62" s="3">
-        <v>29300</v>
+        <v>28600</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2128,10 +2128,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>369900</v>
+        <v>361400</v>
       </c>
       <c r="E66" s="3">
-        <v>226300</v>
+        <v>221100</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2222,10 +2222,10 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>97500</v>
+        <v>95300</v>
       </c>
       <c r="E70" s="3">
-        <v>58000</v>
+        <v>56700</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2276,10 +2276,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-212100</v>
+        <v>-207200</v>
       </c>
       <c r="E72" s="3">
-        <v>-121300</v>
+        <v>-118500</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2384,10 +2384,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-211800</v>
+        <v>-207000</v>
       </c>
       <c r="E76" s="3">
-        <v>-121700</v>
+        <v>-118900</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2470,10 +2470,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-91200</v>
+        <v>-88900</v>
       </c>
       <c r="E81" s="3">
-        <v>-43700</v>
+        <v>-42600</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2510,10 +2510,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>21900</v>
+        <v>21300</v>
       </c>
       <c r="E83" s="3">
-        <v>14600</v>
+        <v>14200</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
@@ -2672,10 +2672,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-16800</v>
+        <v>-16400</v>
       </c>
       <c r="E89" s="3">
-        <v>-6300</v>
+        <v>-6100</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2712,10 +2712,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-96700</v>
+        <v>-94400</v>
       </c>
       <c r="E91" s="3">
-        <v>-41000</v>
+        <v>-40000</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -2793,10 +2793,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-96700</v>
+        <v>-94400</v>
       </c>
       <c r="E94" s="3">
-        <v>-41000</v>
+        <v>-40000</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -2941,10 +2941,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>77400</v>
+        <v>75500</v>
       </c>
       <c r="E100" s="3">
-        <v>93200</v>
+        <v>90900</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -2995,10 +2995,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-35600</v>
+        <v>-34800</v>
       </c>
       <c r="E102" s="3">
-        <v>45900</v>
+        <v>44800</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/QK_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QK_YR_FIN.xlsx
@@ -712,10 +712,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>124600</v>
+        <v>129200</v>
       </c>
       <c r="E8" s="3">
-        <v>73200</v>
+        <v>75900</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -739,10 +739,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>142100</v>
+        <v>147400</v>
       </c>
       <c r="E9" s="3">
-        <v>79400</v>
+        <v>82400</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -766,10 +766,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-17500</v>
+        <v>-18200</v>
       </c>
       <c r="E10" s="3">
-        <v>-6300</v>
+        <v>-6500</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>7300</v>
+        <v>7500</v>
       </c>
       <c r="E12" s="3">
-        <v>6200</v>
+        <v>6400</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
@@ -860,10 +860,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>7100</v>
+        <v>7400</v>
       </c>
       <c r="E14" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -924,10 +924,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>184200</v>
+        <v>191200</v>
       </c>
       <c r="E17" s="3">
-        <v>99700</v>
+        <v>103400</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -951,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-59700</v>
+        <v>-61900</v>
       </c>
       <c r="E18" s="3">
-        <v>-26500</v>
+        <v>-27500</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -991,7 +991,7 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>1200</v>
+        <v>1300</v>
       </c>
       <c r="E20" s="3">
         <v>-700</v>
@@ -1018,10 +1018,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-37200</v>
+        <v>-38600</v>
       </c>
       <c r="E21" s="3">
-        <v>-13000</v>
+        <v>-13500</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>11200</v>
+        <v>11600</v>
       </c>
       <c r="E22" s="3">
-        <v>7000</v>
+        <v>7300</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1072,10 +1072,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-69600</v>
+        <v>-72300</v>
       </c>
       <c r="E23" s="3">
-        <v>-34300</v>
+        <v>-35600</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1153,10 +1153,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-70000</v>
+        <v>-72600</v>
       </c>
       <c r="E26" s="3">
-        <v>-34400</v>
+        <v>-35600</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1180,10 +1180,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-88900</v>
+        <v>-92300</v>
       </c>
       <c r="E27" s="3">
-        <v>-42600</v>
+        <v>-44200</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1315,7 +1315,7 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-1200</v>
+        <v>-1300</v>
       </c>
       <c r="E32" s="3">
         <v>700</v>
@@ -1342,10 +1342,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-88900</v>
+        <v>-92300</v>
       </c>
       <c r="E33" s="3">
-        <v>-42600</v>
+        <v>-44200</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1396,10 +1396,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-88900</v>
+        <v>-92300</v>
       </c>
       <c r="E35" s="3">
-        <v>-42600</v>
+        <v>-44200</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1481,10 +1481,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14500</v>
+        <v>15100</v>
       </c>
       <c r="E41" s="3">
-        <v>51200</v>
+        <v>53000</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1535,10 +1535,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>22200</v>
+        <v>23000</v>
       </c>
       <c r="E43" s="3">
-        <v>11500</v>
+        <v>11900</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1589,10 +1589,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>26000</v>
+        <v>27000</v>
       </c>
       <c r="E45" s="3">
-        <v>13300</v>
+        <v>13800</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1616,10 +1616,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>62800</v>
+        <v>65100</v>
       </c>
       <c r="E46" s="3">
-        <v>76000</v>
+        <v>78700</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1670,10 +1670,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>185100</v>
+        <v>191800</v>
       </c>
       <c r="E48" s="3">
-        <v>81100</v>
+        <v>84000</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1697,10 +1697,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1700</v>
+        <v>1800</v>
       </c>
       <c r="E49" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1832,10 +1832,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>249700</v>
+        <v>258700</v>
       </c>
       <c r="E54" s="3">
-        <v>158900</v>
+        <v>164600</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1885,10 +1885,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>60400</v>
+        <v>62600</v>
       </c>
       <c r="E57" s="3">
-        <v>16000</v>
+        <v>16500</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1912,10 +1912,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>173800</v>
+        <v>180100</v>
       </c>
       <c r="E58" s="3">
-        <v>120300</v>
+        <v>124600</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -1939,10 +1939,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>41900</v>
+        <v>43400</v>
       </c>
       <c r="E59" s="3">
-        <v>28200</v>
+        <v>29200</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -1966,10 +1966,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>276100</v>
+        <v>286100</v>
       </c>
       <c r="E60" s="3">
-        <v>164400</v>
+        <v>170400</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -1993,10 +1993,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>23200</v>
+        <v>24000</v>
       </c>
       <c r="E61" s="3">
-        <v>25600</v>
+        <v>26500</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>59600</v>
+        <v>61700</v>
       </c>
       <c r="E62" s="3">
-        <v>28600</v>
+        <v>29600</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2128,10 +2128,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>361400</v>
+        <v>374400</v>
       </c>
       <c r="E66" s="3">
-        <v>221100</v>
+        <v>229100</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2222,10 +2222,10 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>95300</v>
+        <v>98700</v>
       </c>
       <c r="E70" s="3">
-        <v>56700</v>
+        <v>58700</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2276,10 +2276,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-207200</v>
+        <v>-214700</v>
       </c>
       <c r="E72" s="3">
-        <v>-118500</v>
+        <v>-122800</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2384,10 +2384,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-207000</v>
+        <v>-214400</v>
       </c>
       <c r="E76" s="3">
-        <v>-118900</v>
+        <v>-123200</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2470,10 +2470,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-88900</v>
+        <v>-92300</v>
       </c>
       <c r="E81" s="3">
-        <v>-42600</v>
+        <v>-44200</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2510,10 +2510,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>21300</v>
+        <v>22100</v>
       </c>
       <c r="E83" s="3">
-        <v>14200</v>
+        <v>14800</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
@@ -2672,10 +2672,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-16400</v>
+        <v>-17000</v>
       </c>
       <c r="E89" s="3">
-        <v>-6100</v>
+        <v>-6300</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2712,10 +2712,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-94400</v>
+        <v>-97900</v>
       </c>
       <c r="E91" s="3">
-        <v>-40000</v>
+        <v>-41500</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -2793,10 +2793,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-94400</v>
+        <v>-97900</v>
       </c>
       <c r="E94" s="3">
-        <v>-40000</v>
+        <v>-41500</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -2941,10 +2941,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>75500</v>
+        <v>78400</v>
       </c>
       <c r="E100" s="3">
-        <v>90900</v>
+        <v>94300</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -2995,10 +2995,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-34800</v>
+        <v>-36100</v>
       </c>
       <c r="E102" s="3">
-        <v>44800</v>
+        <v>46500</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/QK_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QK_YR_FIN.xlsx
@@ -712,10 +712,10 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>129200</v>
+        <v>135400</v>
       </c>
       <c r="E8" s="3">
-        <v>75900</v>
+        <v>79500</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>3</v>
@@ -739,10 +739,10 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>147400</v>
+        <v>154400</v>
       </c>
       <c r="E9" s="3">
-        <v>82400</v>
+        <v>86300</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -766,10 +766,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-18200</v>
+        <v>-19000</v>
       </c>
       <c r="E10" s="3">
-        <v>-6500</v>
+        <v>-6800</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>7500</v>
+        <v>7900</v>
       </c>
       <c r="E12" s="3">
-        <v>6400</v>
+        <v>6700</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>3</v>
@@ -860,10 +860,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>7400</v>
+        <v>7700</v>
       </c>
       <c r="E14" s="3">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>3</v>
@@ -924,10 +924,10 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>191200</v>
+        <v>200200</v>
       </c>
       <c r="E17" s="3">
-        <v>103400</v>
+        <v>108400</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>3</v>
@@ -951,10 +951,10 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-61900</v>
+        <v>-64900</v>
       </c>
       <c r="E18" s="3">
-        <v>-27500</v>
+        <v>-28800</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>3</v>
@@ -994,7 +994,7 @@
         <v>1300</v>
       </c>
       <c r="E20" s="3">
-        <v>-700</v>
+        <v>-800</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>3</v>
@@ -1018,10 +1018,10 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-38600</v>
+        <v>-40400</v>
       </c>
       <c r="E21" s="3">
-        <v>-13500</v>
+        <v>-14100</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>11600</v>
+        <v>12100</v>
       </c>
       <c r="E22" s="3">
-        <v>7300</v>
+        <v>7700</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1072,10 +1072,10 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-72300</v>
+        <v>-75700</v>
       </c>
       <c r="E23" s="3">
-        <v>-35600</v>
+        <v>-37200</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>3</v>
@@ -1099,7 +1099,7 @@
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
@@ -1153,10 +1153,10 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-72600</v>
+        <v>-76000</v>
       </c>
       <c r="E26" s="3">
-        <v>-35600</v>
+        <v>-37300</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>3</v>
@@ -1180,10 +1180,10 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-92300</v>
+        <v>-96700</v>
       </c>
       <c r="E27" s="3">
-        <v>-44200</v>
+        <v>-46300</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>3</v>
@@ -1318,7 +1318,7 @@
         <v>-1300</v>
       </c>
       <c r="E32" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>3</v>
@@ -1342,10 +1342,10 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-92300</v>
+        <v>-96700</v>
       </c>
       <c r="E33" s="3">
-        <v>-44200</v>
+        <v>-46300</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>3</v>
@@ -1396,10 +1396,10 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-92300</v>
+        <v>-96700</v>
       </c>
       <c r="E35" s="3">
-        <v>-44200</v>
+        <v>-46300</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>3</v>
@@ -1481,10 +1481,10 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>15100</v>
+        <v>15800</v>
       </c>
       <c r="E41" s="3">
-        <v>53000</v>
+        <v>55500</v>
       </c>
       <c r="F41" s="3" t="s">
         <v>3</v>
@@ -1535,10 +1535,10 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>23000</v>
+        <v>24100</v>
       </c>
       <c r="E43" s="3">
-        <v>11900</v>
+        <v>12500</v>
       </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
@@ -1589,10 +1589,10 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>27000</v>
+        <v>28200</v>
       </c>
       <c r="E45" s="3">
-        <v>13800</v>
+        <v>14400</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>3</v>
@@ -1616,10 +1616,10 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>65100</v>
+        <v>68100</v>
       </c>
       <c r="E46" s="3">
-        <v>78700</v>
+        <v>82500</v>
       </c>
       <c r="F46" s="3" t="s">
         <v>3</v>
@@ -1670,10 +1670,10 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>191800</v>
+        <v>200900</v>
       </c>
       <c r="E48" s="3">
-        <v>84000</v>
+        <v>88000</v>
       </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
@@ -1697,10 +1697,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="E49" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1832,10 +1832,10 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>258700</v>
+        <v>271000</v>
       </c>
       <c r="E54" s="3">
-        <v>164600</v>
+        <v>172400</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>3</v>
@@ -1885,10 +1885,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>62600</v>
+        <v>65600</v>
       </c>
       <c r="E57" s="3">
-        <v>16500</v>
+        <v>17300</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>3</v>
@@ -1912,10 +1912,10 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>180100</v>
+        <v>188700</v>
       </c>
       <c r="E58" s="3">
-        <v>124600</v>
+        <v>130500</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
@@ -1939,10 +1939,10 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>43400</v>
+        <v>45400</v>
       </c>
       <c r="E59" s="3">
-        <v>29200</v>
+        <v>30600</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>3</v>
@@ -1966,10 +1966,10 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>286100</v>
+        <v>299700</v>
       </c>
       <c r="E60" s="3">
-        <v>170400</v>
+        <v>178500</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>3</v>
@@ -1993,10 +1993,10 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>24000</v>
+        <v>25200</v>
       </c>
       <c r="E61" s="3">
-        <v>26500</v>
+        <v>27800</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -2020,10 +2020,10 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>61700</v>
+        <v>64700</v>
       </c>
       <c r="E62" s="3">
-        <v>29600</v>
+        <v>31000</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>3</v>
@@ -2128,10 +2128,10 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>374400</v>
+        <v>392200</v>
       </c>
       <c r="E66" s="3">
-        <v>229100</v>
+        <v>240000</v>
       </c>
       <c r="F66" s="3" t="s">
         <v>3</v>
@@ -2222,10 +2222,10 @@
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>98700</v>
+        <v>103400</v>
       </c>
       <c r="E70" s="3">
-        <v>58700</v>
+        <v>61500</v>
       </c>
       <c r="F70" s="3">
         <v>0</v>
@@ -2276,10 +2276,10 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-214700</v>
+        <v>-224900</v>
       </c>
       <c r="E72" s="3">
-        <v>-122800</v>
+        <v>-128600</v>
       </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
@@ -2384,10 +2384,10 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-214400</v>
+        <v>-224600</v>
       </c>
       <c r="E76" s="3">
-        <v>-123200</v>
+        <v>-129000</v>
       </c>
       <c r="F76" s="3" t="s">
         <v>3</v>
@@ -2470,10 +2470,10 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-92300</v>
+        <v>-96700</v>
       </c>
       <c r="E81" s="3">
-        <v>-44200</v>
+        <v>-46300</v>
       </c>
       <c r="F81" s="3" t="s">
         <v>3</v>
@@ -2510,10 +2510,10 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>22100</v>
+        <v>23200</v>
       </c>
       <c r="E83" s="3">
-        <v>14800</v>
+        <v>15500</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>3</v>
@@ -2672,10 +2672,10 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-17000</v>
+        <v>-17800</v>
       </c>
       <c r="E89" s="3">
-        <v>-6300</v>
+        <v>-6600</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>3</v>
@@ -2712,10 +2712,10 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-97900</v>
+        <v>-102600</v>
       </c>
       <c r="E91" s="3">
-        <v>-41500</v>
+        <v>-43400</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>3</v>
@@ -2793,10 +2793,10 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-97900</v>
+        <v>-102600</v>
       </c>
       <c r="E94" s="3">
-        <v>-41500</v>
+        <v>-43400</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>3</v>
@@ -2941,10 +2941,10 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>78400</v>
+        <v>82100</v>
       </c>
       <c r="E100" s="3">
-        <v>94300</v>
+        <v>98800</v>
       </c>
       <c r="F100" s="3" t="s">
         <v>3</v>
@@ -2995,10 +2995,10 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-36100</v>
+        <v>-37800</v>
       </c>
       <c r="E102" s="3">
-        <v>46500</v>
+        <v>48700</v>
       </c>
       <c r="F102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/QK_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QK_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,37 +665,37 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F7" s="2">
         <v>43373</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43008</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,23 +705,29 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>135400</v>
+        <v>184600</v>
       </c>
       <c r="E8" s="3">
-        <v>79500</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
+        <v>188500</v>
+      </c>
+      <c r="F8" s="3">
+        <v>136000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>79900</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -732,23 +738,29 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>154400</v>
+        <v>186000</v>
       </c>
       <c r="E9" s="3">
-        <v>86300</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
+        <v>205900</v>
+      </c>
+      <c r="F9" s="3">
+        <v>155100</v>
+      </c>
+      <c r="G9" s="3">
+        <v>86700</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -759,24 +771,30 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>-19000</v>
+        <v>-1500</v>
       </c>
       <c r="E10" s="3">
+        <v>-17400</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-19100</v>
+      </c>
+      <c r="G10" s="3">
         <v>-6800</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -786,9 +804,15 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,23 +824,25 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E12" s="3">
+        <v>7200</v>
+      </c>
+      <c r="F12" s="3">
         <v>7900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>6700</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
       </c>
@@ -826,9 +852,15 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,24 +885,30 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>129400</v>
+      </c>
+      <c r="E14" s="3">
+        <v>7100</v>
+      </c>
+      <c r="F14" s="3">
         <v>7700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>3500</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -880,9 +918,15 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -907,9 +951,15 @@
       <c r="J15" s="3">
         <v>0</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,22 +968,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>200200</v>
+        <v>413800</v>
       </c>
       <c r="E17" s="3">
-        <v>108400</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>257000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>201100</v>
+      </c>
+      <c r="G17" s="3">
+        <v>108800</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -944,23 +996,29 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-64900</v>
+        <v>-229300</v>
       </c>
       <c r="E18" s="3">
-        <v>-28800</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>-68500</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-65200</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-29000</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1029,15 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,23 +1049,25 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>14900</v>
+      </c>
+      <c r="E20" s="3">
+        <v>6800</v>
+      </c>
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1011,24 +1077,30 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-40400</v>
+        <v>-174000</v>
       </c>
       <c r="E21" s="3">
+        <v>-28700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-40500</v>
+      </c>
+      <c r="G21" s="3">
         <v>-14100</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1038,24 +1110,30 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>12100</v>
+        <v>19900</v>
       </c>
       <c r="E22" s="3">
+        <v>14400</v>
+      </c>
+      <c r="F22" s="3">
+        <v>12200</v>
+      </c>
+      <c r="G22" s="3">
         <v>7700</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1065,23 +1143,29 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-75700</v>
+        <v>-234300</v>
       </c>
       <c r="E23" s="3">
-        <v>-37200</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>-76100</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-76000</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-37400</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1092,24 +1176,30 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <v>400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>100</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1119,9 +1209,15 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,23 +1242,29 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-76000</v>
+        <v>-234300</v>
       </c>
       <c r="E26" s="3">
-        <v>-37300</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>-76100</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-76400</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-37500</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1173,23 +1275,29 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-96700</v>
+        <v>-234300</v>
       </c>
       <c r="E27" s="3">
-        <v>-46300</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>-123100</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-97100</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-46500</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1200,9 +1308,15 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,9 +1341,15 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1254,9 +1374,15 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1407,15 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,24 +1440,30 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-6800</v>
+      </c>
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1335,23 +1473,29 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-96700</v>
+        <v>-234300</v>
       </c>
       <c r="E33" s="3">
-        <v>-46300</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>-123100</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-97100</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-46500</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1506,15 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,23 +1539,29 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-96700</v>
+        <v>-234300</v>
       </c>
       <c r="E35" s="3">
-        <v>-46300</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>-123100</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-97100</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-46500</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1416,29 +1572,35 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F38" s="2">
         <v>43373</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43008</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1610,15 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1630,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,22 +1645,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>15800</v>
+        <v>3500</v>
       </c>
       <c r="E41" s="3">
-        <v>55500</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>24400</v>
+      </c>
+      <c r="F41" s="3">
+        <v>15900</v>
+      </c>
+      <c r="G41" s="3">
+        <v>55800</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1501,9 +1673,15 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1528,23 +1706,29 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>24100</v>
+        <v>8200</v>
       </c>
       <c r="E43" s="3">
-        <v>12500</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
+        <v>33200</v>
+      </c>
+      <c r="F43" s="3">
+        <v>24200</v>
+      </c>
+      <c r="G43" s="3">
+        <v>12600</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1555,9 +1739,15 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1582,23 +1772,29 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>28200</v>
+        <v>19300</v>
       </c>
       <c r="E45" s="3">
-        <v>14400</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
+        <v>33500</v>
+      </c>
+      <c r="F45" s="3">
+        <v>28400</v>
+      </c>
+      <c r="G45" s="3">
+        <v>14500</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1609,23 +1805,29 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>68100</v>
+        <v>31000</v>
       </c>
       <c r="E46" s="3">
-        <v>82500</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>91100</v>
+      </c>
+      <c r="F46" s="3">
+        <v>68400</v>
+      </c>
+      <c r="G46" s="3">
+        <v>82800</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1636,9 +1838,15 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1663,23 +1871,29 @@
       <c r="J47" s="3">
         <v>0</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>200900</v>
+        <v>54700</v>
       </c>
       <c r="E48" s="3">
-        <v>88000</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+        <v>181100</v>
+      </c>
+      <c r="F48" s="3">
+        <v>201800</v>
+      </c>
+      <c r="G48" s="3">
+        <v>88400</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1690,24 +1904,30 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>35500</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F49" s="3">
         <v>1900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>2000</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1717,9 +1937,15 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1970,15 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,23 +2003,29 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E52" s="3">
+        <v>900</v>
+      </c>
+      <c r="F52" s="3">
         <v>100</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -1798,9 +2036,15 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,23 +2069,29 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>271000</v>
+        <v>130000</v>
       </c>
       <c r="E54" s="3">
-        <v>172400</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>275000</v>
+      </c>
+      <c r="F54" s="3">
+        <v>272200</v>
+      </c>
+      <c r="G54" s="3">
+        <v>173200</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -1852,9 +2102,15 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +2122,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,22 +2137,24 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>65600</v>
+        <v>45000</v>
       </c>
       <c r="E57" s="3">
-        <v>17300</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+        <v>42300</v>
+      </c>
+      <c r="F57" s="3">
+        <v>65800</v>
+      </c>
+      <c r="G57" s="3">
+        <v>17400</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -1905,23 +2165,29 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>188700</v>
+        <v>99300</v>
       </c>
       <c r="E58" s="3">
-        <v>130500</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+        <v>164400</v>
+      </c>
+      <c r="F58" s="3">
+        <v>189500</v>
+      </c>
+      <c r="G58" s="3">
+        <v>131100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -1932,23 +2198,29 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>45400</v>
+        <v>155400</v>
       </c>
       <c r="E59" s="3">
-        <v>30600</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>52600</v>
+      </c>
+      <c r="F59" s="3">
+        <v>45600</v>
+      </c>
+      <c r="G59" s="3">
+        <v>30800</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -1959,9 +2231,15 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -1969,13 +2247,13 @@
         <v>299700</v>
       </c>
       <c r="E60" s="3">
-        <v>178500</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>259300</v>
+      </c>
+      <c r="F60" s="3">
+        <v>301000</v>
+      </c>
+      <c r="G60" s="3">
+        <v>179200</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -1986,23 +2264,29 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>25200</v>
+        <v>71300</v>
       </c>
       <c r="E61" s="3">
-        <v>27800</v>
+        <v>65400</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>25300</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>27900</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2013,23 +2297,29 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>64700</v>
+        <v>63700</v>
       </c>
       <c r="E62" s="3">
-        <v>31000</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>74100</v>
+      </c>
+      <c r="F62" s="3">
+        <v>65000</v>
+      </c>
+      <c r="G62" s="3">
+        <v>31100</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2040,9 +2330,15 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2363,15 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2396,15 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,23 +2429,29 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>392200</v>
+        <v>436200</v>
       </c>
       <c r="E66" s="3">
-        <v>240000</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>400300</v>
+      </c>
+      <c r="F66" s="3">
+        <v>393900</v>
+      </c>
+      <c r="G66" s="3">
+        <v>241000</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2148,9 +2462,15 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2482,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2510,15 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,23 +2543,29 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>103400</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>61500</v>
+        <v>223300</v>
       </c>
       <c r="F70" s="3">
-        <v>0</v>
+        <v>103900</v>
       </c>
       <c r="G70" s="3">
-        <v>0</v>
+        <v>61800</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2242,9 +2576,15 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,23 +2609,29 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-224900</v>
+        <v>-582000</v>
       </c>
       <c r="E72" s="3">
-        <v>-128600</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-347700</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-225900</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-129100</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2296,9 +2642,15 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2675,15 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2708,15 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,23 +2741,29 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-224600</v>
+        <v>-306200</v>
       </c>
       <c r="E76" s="3">
-        <v>-129000</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>-348700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-225700</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-129600</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2404,9 +2774,15 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,29 +2807,35 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="F80" s="2">
         <v>43373</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43008</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,23 +2845,29 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-96700</v>
+        <v>-234300</v>
       </c>
       <c r="E81" s="3">
-        <v>-46300</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>-123100</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-97100</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-46500</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2878,15 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,22 +2898,24 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>23200</v>
+        <v>40200</v>
       </c>
       <c r="E83" s="3">
-        <v>15500</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+        <v>32900</v>
+      </c>
+      <c r="F83" s="3">
+        <v>23300</v>
+      </c>
+      <c r="G83" s="3">
+        <v>15600</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -2530,9 +2926,15 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2959,15 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2992,15 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +3025,15 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +3058,15 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,23 +3091,29 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-17800</v>
+        <v>8400</v>
       </c>
       <c r="E89" s="3">
-        <v>-6600</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
+        <v>-13500</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-17900</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-6700</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +3124,15 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,22 +3144,24 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-102600</v>
+        <v>-15200</v>
       </c>
       <c r="E91" s="3">
-        <v>-43400</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
+        <v>-52200</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="G91" s="3">
+        <v>-43600</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -2732,9 +3172,15 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +3205,15 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,23 +3238,29 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-102600</v>
+        <v>-21200</v>
       </c>
       <c r="E94" s="3">
-        <v>-43400</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
+        <v>-53700</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-103000</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-43600</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -2813,9 +3271,15 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,8 +3291,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2853,9 +3319,15 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3352,15 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3385,15 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,23 +3418,29 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>82100</v>
+        <v>-20600</v>
       </c>
       <c r="E100" s="3">
-        <v>98800</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
+        <v>87000</v>
+      </c>
+      <c r="F100" s="3">
+        <v>82400</v>
+      </c>
+      <c r="G100" s="3">
+        <v>99200</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -2961,23 +3451,29 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>300</v>
+      </c>
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
+      <c r="G101" s="3">
+        <v>0</v>
       </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
@@ -2988,23 +3484,29 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-37800</v>
+        <v>-33500</v>
       </c>
       <c r="E102" s="3">
-        <v>48700</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
+        <v>20200</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="G102" s="3">
+        <v>48900</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
@@ -3015,7 +3517,13 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/QK_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QK_YR_FIN.xlsx
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>184600</v>
+        <v>188500</v>
       </c>
       <c r="E8" s="3">
-        <v>188500</v>
+        <v>192500</v>
       </c>
       <c r="F8" s="3">
-        <v>136000</v>
+        <v>138800</v>
       </c>
       <c r="G8" s="3">
-        <v>79900</v>
+        <v>81600</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>186000</v>
+        <v>190000</v>
       </c>
       <c r="E9" s="3">
-        <v>205900</v>
+        <v>210200</v>
       </c>
       <c r="F9" s="3">
-        <v>155100</v>
+        <v>158400</v>
       </c>
       <c r="G9" s="3">
-        <v>86700</v>
+        <v>88500</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -787,13 +787,13 @@
         <v>-1500</v>
       </c>
       <c r="E10" s="3">
-        <v>-17400</v>
+        <v>-17800</v>
       </c>
       <c r="F10" s="3">
-        <v>-19100</v>
+        <v>-19500</v>
       </c>
       <c r="G10" s="3">
-        <v>-6800</v>
+        <v>-7000</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="E12" s="3">
-        <v>7200</v>
+        <v>7300</v>
       </c>
       <c r="F12" s="3">
-        <v>7900</v>
+        <v>8100</v>
       </c>
       <c r="G12" s="3">
-        <v>6700</v>
+        <v>6900</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -898,13 +898,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>129400</v>
+        <v>132100</v>
       </c>
       <c r="E14" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="F14" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="G14" s="3">
         <v>3500</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>413800</v>
+        <v>422600</v>
       </c>
       <c r="E17" s="3">
-        <v>257000</v>
+        <v>262400</v>
       </c>
       <c r="F17" s="3">
-        <v>201100</v>
+        <v>205400</v>
       </c>
       <c r="G17" s="3">
-        <v>108800</v>
+        <v>111100</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-229300</v>
+        <v>-234100</v>
       </c>
       <c r="E18" s="3">
-        <v>-68500</v>
+        <v>-69900</v>
       </c>
       <c r="F18" s="3">
-        <v>-65200</v>
+        <v>-66500</v>
       </c>
       <c r="G18" s="3">
-        <v>-29000</v>
+        <v>-29600</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1057,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>14900</v>
+        <v>15200</v>
       </c>
       <c r="E20" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="F20" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G20" s="3">
         <v>-800</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-174000</v>
+        <v>-177900</v>
       </c>
       <c r="E21" s="3">
-        <v>-28700</v>
+        <v>-29500</v>
       </c>
       <c r="F21" s="3">
-        <v>-40500</v>
+        <v>-41400</v>
       </c>
       <c r="G21" s="3">
-        <v>-14100</v>
+        <v>-14500</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1123,16 +1123,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>19900</v>
+        <v>20400</v>
       </c>
       <c r="E22" s="3">
-        <v>14400</v>
+        <v>14700</v>
       </c>
       <c r="F22" s="3">
-        <v>12200</v>
+        <v>12400</v>
       </c>
       <c r="G22" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-234300</v>
+        <v>-239300</v>
       </c>
       <c r="E23" s="3">
-        <v>-76100</v>
+        <v>-77700</v>
       </c>
       <c r="F23" s="3">
-        <v>-76000</v>
+        <v>-77600</v>
       </c>
       <c r="G23" s="3">
-        <v>-37400</v>
+        <v>-38200</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-234300</v>
+        <v>-239300</v>
       </c>
       <c r="E26" s="3">
-        <v>-76100</v>
+        <v>-77700</v>
       </c>
       <c r="F26" s="3">
-        <v>-76400</v>
+        <v>-78000</v>
       </c>
       <c r="G26" s="3">
-        <v>-37500</v>
+        <v>-38300</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-234300</v>
+        <v>-239300</v>
       </c>
       <c r="E27" s="3">
-        <v>-123100</v>
+        <v>-125700</v>
       </c>
       <c r="F27" s="3">
-        <v>-97100</v>
+        <v>-99100</v>
       </c>
       <c r="G27" s="3">
-        <v>-46500</v>
+        <v>-47500</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1453,13 +1453,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-14900</v>
+        <v>-15200</v>
       </c>
       <c r="E32" s="3">
-        <v>-6800</v>
+        <v>-6900</v>
       </c>
       <c r="F32" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="G32" s="3">
         <v>800</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-234300</v>
+        <v>-239300</v>
       </c>
       <c r="E33" s="3">
-        <v>-123100</v>
+        <v>-125700</v>
       </c>
       <c r="F33" s="3">
-        <v>-97100</v>
+        <v>-99100</v>
       </c>
       <c r="G33" s="3">
-        <v>-46500</v>
+        <v>-47500</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-234300</v>
+        <v>-239300</v>
       </c>
       <c r="E35" s="3">
-        <v>-123100</v>
+        <v>-125700</v>
       </c>
       <c r="F35" s="3">
-        <v>-97100</v>
+        <v>-99100</v>
       </c>
       <c r="G35" s="3">
-        <v>-46500</v>
+        <v>-47500</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E41" s="3">
-        <v>24400</v>
+        <v>24900</v>
       </c>
       <c r="F41" s="3">
-        <v>15900</v>
+        <v>16200</v>
       </c>
       <c r="G41" s="3">
-        <v>55800</v>
+        <v>57000</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8200</v>
+        <v>8400</v>
       </c>
       <c r="E43" s="3">
-        <v>33200</v>
+        <v>33900</v>
       </c>
       <c r="F43" s="3">
-        <v>24200</v>
+        <v>24700</v>
       </c>
       <c r="G43" s="3">
-        <v>12600</v>
+        <v>12800</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>19300</v>
+        <v>19700</v>
       </c>
       <c r="E45" s="3">
-        <v>33500</v>
+        <v>34200</v>
       </c>
       <c r="F45" s="3">
-        <v>28400</v>
+        <v>29000</v>
       </c>
       <c r="G45" s="3">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>31000</v>
+        <v>31700</v>
       </c>
       <c r="E46" s="3">
-        <v>91100</v>
+        <v>93100</v>
       </c>
       <c r="F46" s="3">
-        <v>68400</v>
+        <v>69900</v>
       </c>
       <c r="G46" s="3">
-        <v>82800</v>
+        <v>84600</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>54700</v>
+        <v>55900</v>
       </c>
       <c r="E48" s="3">
-        <v>181100</v>
+        <v>184900</v>
       </c>
       <c r="F48" s="3">
-        <v>201800</v>
+        <v>206100</v>
       </c>
       <c r="G48" s="3">
-        <v>88400</v>
+        <v>90200</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1917,10 +1917,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>35500</v>
+        <v>36300</v>
       </c>
       <c r="E49" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F49" s="3">
         <v>1900</v>
@@ -2016,7 +2016,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8700</v>
+        <v>8900</v>
       </c>
       <c r="E52" s="3">
         <v>900</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>130000</v>
+        <v>132700</v>
       </c>
       <c r="E54" s="3">
-        <v>275000</v>
+        <v>280800</v>
       </c>
       <c r="F54" s="3">
-        <v>272200</v>
+        <v>277900</v>
       </c>
       <c r="G54" s="3">
-        <v>173200</v>
+        <v>176900</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>45000</v>
+        <v>45900</v>
       </c>
       <c r="E57" s="3">
-        <v>42300</v>
+        <v>43200</v>
       </c>
       <c r="F57" s="3">
-        <v>65800</v>
+        <v>67200</v>
       </c>
       <c r="G57" s="3">
-        <v>17400</v>
+        <v>17800</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2178,16 +2178,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>99300</v>
+        <v>101400</v>
       </c>
       <c r="E58" s="3">
-        <v>164400</v>
+        <v>167800</v>
       </c>
       <c r="F58" s="3">
-        <v>189500</v>
+        <v>193500</v>
       </c>
       <c r="G58" s="3">
-        <v>131100</v>
+        <v>133900</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>155400</v>
+        <v>158700</v>
       </c>
       <c r="E59" s="3">
-        <v>52600</v>
+        <v>53700</v>
       </c>
       <c r="F59" s="3">
-        <v>45600</v>
+        <v>46600</v>
       </c>
       <c r="G59" s="3">
-        <v>30800</v>
+        <v>31400</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>299700</v>
+        <v>306100</v>
       </c>
       <c r="E60" s="3">
-        <v>259300</v>
+        <v>264800</v>
       </c>
       <c r="F60" s="3">
-        <v>301000</v>
+        <v>307300</v>
       </c>
       <c r="G60" s="3">
-        <v>179200</v>
+        <v>183000</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2277,16 +2277,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>71300</v>
+        <v>72800</v>
       </c>
       <c r="E61" s="3">
-        <v>65400</v>
+        <v>66800</v>
       </c>
       <c r="F61" s="3">
-        <v>25300</v>
+        <v>25800</v>
       </c>
       <c r="G61" s="3">
-        <v>27900</v>
+        <v>28500</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2310,16 +2310,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>63700</v>
+        <v>65000</v>
       </c>
       <c r="E62" s="3">
-        <v>74100</v>
+        <v>75700</v>
       </c>
       <c r="F62" s="3">
-        <v>65000</v>
+        <v>66300</v>
       </c>
       <c r="G62" s="3">
-        <v>31100</v>
+        <v>31800</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>436200</v>
+        <v>445400</v>
       </c>
       <c r="E66" s="3">
-        <v>400300</v>
+        <v>408800</v>
       </c>
       <c r="F66" s="3">
-        <v>393900</v>
+        <v>402200</v>
       </c>
       <c r="G66" s="3">
-        <v>241000</v>
+        <v>246100</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2559,13 +2559,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>223300</v>
+        <v>228000</v>
       </c>
       <c r="F70" s="3">
-        <v>103900</v>
+        <v>106100</v>
       </c>
       <c r="G70" s="3">
-        <v>61800</v>
+        <v>63100</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-582000</v>
+        <v>-594300</v>
       </c>
       <c r="E72" s="3">
-        <v>-347700</v>
+        <v>-355100</v>
       </c>
       <c r="F72" s="3">
-        <v>-225900</v>
+        <v>-230700</v>
       </c>
       <c r="G72" s="3">
-        <v>-129100</v>
+        <v>-131900</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-306200</v>
+        <v>-312700</v>
       </c>
       <c r="E76" s="3">
-        <v>-348700</v>
+        <v>-356000</v>
       </c>
       <c r="F76" s="3">
-        <v>-225700</v>
+        <v>-230400</v>
       </c>
       <c r="G76" s="3">
-        <v>-129600</v>
+        <v>-132300</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-234300</v>
+        <v>-239300</v>
       </c>
       <c r="E81" s="3">
-        <v>-123100</v>
+        <v>-125700</v>
       </c>
       <c r="F81" s="3">
-        <v>-97100</v>
+        <v>-99100</v>
       </c>
       <c r="G81" s="3">
-        <v>-46500</v>
+        <v>-47500</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2906,16 +2906,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>40200</v>
+        <v>41000</v>
       </c>
       <c r="E83" s="3">
-        <v>32900</v>
+        <v>33600</v>
       </c>
       <c r="F83" s="3">
-        <v>23300</v>
+        <v>23800</v>
       </c>
       <c r="G83" s="3">
-        <v>15600</v>
+        <v>15900</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="E89" s="3">
-        <v>-13500</v>
+        <v>-13800</v>
       </c>
       <c r="F89" s="3">
-        <v>-17900</v>
+        <v>-18300</v>
       </c>
       <c r="G89" s="3">
-        <v>-6700</v>
+        <v>-6800</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15200</v>
+        <v>-15500</v>
       </c>
       <c r="E91" s="3">
-        <v>-52200</v>
+        <v>-53300</v>
       </c>
       <c r="F91" s="3">
-        <v>-103000</v>
+        <v>-105200</v>
       </c>
       <c r="G91" s="3">
-        <v>-43600</v>
+        <v>-44500</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-21200</v>
+        <v>-21600</v>
       </c>
       <c r="E94" s="3">
-        <v>-53700</v>
+        <v>-54800</v>
       </c>
       <c r="F94" s="3">
-        <v>-103000</v>
+        <v>-105200</v>
       </c>
       <c r="G94" s="3">
-        <v>-43600</v>
+        <v>-44500</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-20600</v>
+        <v>-21000</v>
       </c>
       <c r="E100" s="3">
-        <v>87000</v>
+        <v>88900</v>
       </c>
       <c r="F100" s="3">
-        <v>82400</v>
+        <v>84200</v>
       </c>
       <c r="G100" s="3">
-        <v>99200</v>
+        <v>101300</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-33500</v>
+        <v>-34200</v>
       </c>
       <c r="E102" s="3">
-        <v>20200</v>
+        <v>20600</v>
       </c>
       <c r="F102" s="3">
-        <v>-37900</v>
+        <v>-38700</v>
       </c>
       <c r="G102" s="3">
-        <v>48900</v>
+        <v>49900</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/QK_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QK_YR_FIN.xlsx
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>188500</v>
+        <v>186000</v>
       </c>
       <c r="E8" s="3">
-        <v>192500</v>
+        <v>190000</v>
       </c>
       <c r="F8" s="3">
-        <v>138800</v>
+        <v>137000</v>
       </c>
       <c r="G8" s="3">
-        <v>81600</v>
+        <v>80500</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>190000</v>
+        <v>187500</v>
       </c>
       <c r="E9" s="3">
-        <v>210200</v>
+        <v>207500</v>
       </c>
       <c r="F9" s="3">
-        <v>158400</v>
+        <v>156300</v>
       </c>
       <c r="G9" s="3">
-        <v>88500</v>
+        <v>87400</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -787,13 +787,13 @@
         <v>-1500</v>
       </c>
       <c r="E10" s="3">
-        <v>-17800</v>
+        <v>-17500</v>
       </c>
       <c r="F10" s="3">
-        <v>-19500</v>
+        <v>-19300</v>
       </c>
       <c r="G10" s="3">
-        <v>-7000</v>
+        <v>-6900</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>3900</v>
+        <v>3800</v>
       </c>
       <c r="E12" s="3">
-        <v>7300</v>
+        <v>7200</v>
       </c>
       <c r="F12" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="G12" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -898,13 +898,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>132100</v>
+        <v>130400</v>
       </c>
       <c r="E14" s="3">
-        <v>7200</v>
+        <v>7100</v>
       </c>
       <c r="F14" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="G14" s="3">
         <v>3500</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>422600</v>
+        <v>417100</v>
       </c>
       <c r="E17" s="3">
-        <v>262400</v>
+        <v>259000</v>
       </c>
       <c r="F17" s="3">
-        <v>205400</v>
+        <v>202700</v>
       </c>
       <c r="G17" s="3">
-        <v>111100</v>
+        <v>109700</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-234100</v>
+        <v>-231100</v>
       </c>
       <c r="E18" s="3">
-        <v>-69900</v>
+        <v>-69000</v>
       </c>
       <c r="F18" s="3">
-        <v>-66500</v>
+        <v>-65700</v>
       </c>
       <c r="G18" s="3">
-        <v>-29600</v>
+        <v>-29200</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1057,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>15200</v>
+        <v>15000</v>
       </c>
       <c r="E20" s="3">
-        <v>6900</v>
+        <v>6800</v>
       </c>
       <c r="F20" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="G20" s="3">
         <v>-800</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-177900</v>
+        <v>-175500</v>
       </c>
       <c r="E21" s="3">
-        <v>-29500</v>
+        <v>-29000</v>
       </c>
       <c r="F21" s="3">
-        <v>-41400</v>
+        <v>-40800</v>
       </c>
       <c r="G21" s="3">
-        <v>-14500</v>
+        <v>-14300</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1123,16 +1123,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>20400</v>
+        <v>20100</v>
       </c>
       <c r="E22" s="3">
-        <v>14700</v>
+        <v>14500</v>
       </c>
       <c r="F22" s="3">
-        <v>12400</v>
+        <v>12300</v>
       </c>
       <c r="G22" s="3">
-        <v>7900</v>
+        <v>7800</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-239300</v>
+        <v>-236100</v>
       </c>
       <c r="E23" s="3">
-        <v>-77700</v>
+        <v>-76700</v>
       </c>
       <c r="F23" s="3">
-        <v>-77600</v>
+        <v>-76600</v>
       </c>
       <c r="G23" s="3">
-        <v>-38200</v>
+        <v>-37700</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-239300</v>
+        <v>-236200</v>
       </c>
       <c r="E26" s="3">
-        <v>-77700</v>
+        <v>-76700</v>
       </c>
       <c r="F26" s="3">
-        <v>-78000</v>
+        <v>-77000</v>
       </c>
       <c r="G26" s="3">
-        <v>-38300</v>
+        <v>-37800</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-239300</v>
+        <v>-236100</v>
       </c>
       <c r="E27" s="3">
-        <v>-125700</v>
+        <v>-124100</v>
       </c>
       <c r="F27" s="3">
-        <v>-99100</v>
+        <v>-97800</v>
       </c>
       <c r="G27" s="3">
-        <v>-47500</v>
+        <v>-46800</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1453,13 +1453,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-15200</v>
+        <v>-15000</v>
       </c>
       <c r="E32" s="3">
-        <v>-6900</v>
+        <v>-6800</v>
       </c>
       <c r="F32" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="G32" s="3">
         <v>800</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-239300</v>
+        <v>-236100</v>
       </c>
       <c r="E33" s="3">
-        <v>-125700</v>
+        <v>-124100</v>
       </c>
       <c r="F33" s="3">
-        <v>-99100</v>
+        <v>-97800</v>
       </c>
       <c r="G33" s="3">
-        <v>-47500</v>
+        <v>-46800</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-239300</v>
+        <v>-236100</v>
       </c>
       <c r="E35" s="3">
-        <v>-125700</v>
+        <v>-124100</v>
       </c>
       <c r="F35" s="3">
-        <v>-99100</v>
+        <v>-97800</v>
       </c>
       <c r="G35" s="3">
-        <v>-47500</v>
+        <v>-46800</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="E41" s="3">
-        <v>24900</v>
+        <v>24600</v>
       </c>
       <c r="F41" s="3">
-        <v>16200</v>
+        <v>16000</v>
       </c>
       <c r="G41" s="3">
-        <v>57000</v>
+        <v>56200</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="E43" s="3">
-        <v>33900</v>
+        <v>33500</v>
       </c>
       <c r="F43" s="3">
-        <v>24700</v>
+        <v>24400</v>
       </c>
       <c r="G43" s="3">
-        <v>12800</v>
+        <v>12700</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>19700</v>
+        <v>19400</v>
       </c>
       <c r="E45" s="3">
-        <v>34200</v>
+        <v>33800</v>
       </c>
       <c r="F45" s="3">
-        <v>29000</v>
+        <v>28600</v>
       </c>
       <c r="G45" s="3">
-        <v>14800</v>
+        <v>14600</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>31700</v>
+        <v>31300</v>
       </c>
       <c r="E46" s="3">
-        <v>93100</v>
+        <v>91900</v>
       </c>
       <c r="F46" s="3">
-        <v>69900</v>
+        <v>69000</v>
       </c>
       <c r="G46" s="3">
-        <v>84600</v>
+        <v>83500</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>55900</v>
+        <v>55100</v>
       </c>
       <c r="E48" s="3">
-        <v>184900</v>
+        <v>182500</v>
       </c>
       <c r="F48" s="3">
-        <v>206100</v>
+        <v>203400</v>
       </c>
       <c r="G48" s="3">
-        <v>90200</v>
+        <v>89100</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1917,10 +1917,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>36300</v>
+        <v>35800</v>
       </c>
       <c r="E49" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="F49" s="3">
         <v>1900</v>
@@ -2016,7 +2016,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8900</v>
+        <v>8800</v>
       </c>
       <c r="E52" s="3">
         <v>900</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>132700</v>
+        <v>131000</v>
       </c>
       <c r="E54" s="3">
-        <v>280800</v>
+        <v>277100</v>
       </c>
       <c r="F54" s="3">
-        <v>277900</v>
+        <v>274300</v>
       </c>
       <c r="G54" s="3">
-        <v>176900</v>
+        <v>174600</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>45900</v>
+        <v>45300</v>
       </c>
       <c r="E57" s="3">
-        <v>43200</v>
+        <v>42700</v>
       </c>
       <c r="F57" s="3">
-        <v>67200</v>
+        <v>66400</v>
       </c>
       <c r="G57" s="3">
-        <v>17800</v>
+        <v>17500</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2178,16 +2178,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>101400</v>
+        <v>100100</v>
       </c>
       <c r="E58" s="3">
-        <v>167800</v>
+        <v>165700</v>
       </c>
       <c r="F58" s="3">
-        <v>193500</v>
+        <v>191000</v>
       </c>
       <c r="G58" s="3">
-        <v>133900</v>
+        <v>132100</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>158700</v>
+        <v>156600</v>
       </c>
       <c r="E59" s="3">
-        <v>53700</v>
+        <v>53000</v>
       </c>
       <c r="F59" s="3">
-        <v>46600</v>
+        <v>46000</v>
       </c>
       <c r="G59" s="3">
-        <v>31400</v>
+        <v>31000</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>306100</v>
+        <v>302100</v>
       </c>
       <c r="E60" s="3">
-        <v>264800</v>
+        <v>261300</v>
       </c>
       <c r="F60" s="3">
-        <v>307300</v>
+        <v>303300</v>
       </c>
       <c r="G60" s="3">
-        <v>183000</v>
+        <v>180600</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2277,16 +2277,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>72800</v>
+        <v>71900</v>
       </c>
       <c r="E61" s="3">
-        <v>66800</v>
+        <v>66000</v>
       </c>
       <c r="F61" s="3">
-        <v>25800</v>
+        <v>25500</v>
       </c>
       <c r="G61" s="3">
-        <v>28500</v>
+        <v>28100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2310,16 +2310,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>65000</v>
+        <v>64200</v>
       </c>
       <c r="E62" s="3">
-        <v>75700</v>
+        <v>74700</v>
       </c>
       <c r="F62" s="3">
-        <v>66300</v>
+        <v>65500</v>
       </c>
       <c r="G62" s="3">
-        <v>31800</v>
+        <v>31400</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>445400</v>
+        <v>439600</v>
       </c>
       <c r="E66" s="3">
-        <v>408800</v>
+        <v>403500</v>
       </c>
       <c r="F66" s="3">
-        <v>402200</v>
+        <v>397000</v>
       </c>
       <c r="G66" s="3">
-        <v>246100</v>
+        <v>242900</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2559,13 +2559,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>228000</v>
+        <v>225000</v>
       </c>
       <c r="F70" s="3">
-        <v>106100</v>
+        <v>104700</v>
       </c>
       <c r="G70" s="3">
-        <v>63100</v>
+        <v>62300</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-594300</v>
+        <v>-586600</v>
       </c>
       <c r="E72" s="3">
-        <v>-355100</v>
+        <v>-350400</v>
       </c>
       <c r="F72" s="3">
-        <v>-230700</v>
+        <v>-227700</v>
       </c>
       <c r="G72" s="3">
-        <v>-131900</v>
+        <v>-130200</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-312700</v>
+        <v>-308600</v>
       </c>
       <c r="E76" s="3">
-        <v>-356000</v>
+        <v>-351300</v>
       </c>
       <c r="F76" s="3">
-        <v>-230400</v>
+        <v>-227400</v>
       </c>
       <c r="G76" s="3">
-        <v>-132300</v>
+        <v>-130600</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-239300</v>
+        <v>-236100</v>
       </c>
       <c r="E81" s="3">
-        <v>-125700</v>
+        <v>-124100</v>
       </c>
       <c r="F81" s="3">
-        <v>-99100</v>
+        <v>-97800</v>
       </c>
       <c r="G81" s="3">
-        <v>-47500</v>
+        <v>-46800</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2906,16 +2906,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>41000</v>
+        <v>40500</v>
       </c>
       <c r="E83" s="3">
-        <v>33600</v>
+        <v>33100</v>
       </c>
       <c r="F83" s="3">
-        <v>23800</v>
+        <v>23500</v>
       </c>
       <c r="G83" s="3">
-        <v>15900</v>
+        <v>15700</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8600</v>
+        <v>8400</v>
       </c>
       <c r="E89" s="3">
-        <v>-13800</v>
+        <v>-13600</v>
       </c>
       <c r="F89" s="3">
-        <v>-18300</v>
+        <v>-18000</v>
       </c>
       <c r="G89" s="3">
-        <v>-6800</v>
+        <v>-6700</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15500</v>
+        <v>-15300</v>
       </c>
       <c r="E91" s="3">
-        <v>-53300</v>
+        <v>-52600</v>
       </c>
       <c r="F91" s="3">
-        <v>-105200</v>
+        <v>-103800</v>
       </c>
       <c r="G91" s="3">
-        <v>-44500</v>
+        <v>-44000</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-21600</v>
+        <v>-21400</v>
       </c>
       <c r="E94" s="3">
-        <v>-54800</v>
+        <v>-54100</v>
       </c>
       <c r="F94" s="3">
-        <v>-105200</v>
+        <v>-103800</v>
       </c>
       <c r="G94" s="3">
-        <v>-44500</v>
+        <v>-44000</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-21000</v>
+        <v>-20800</v>
       </c>
       <c r="E100" s="3">
-        <v>88900</v>
+        <v>87700</v>
       </c>
       <c r="F100" s="3">
-        <v>84200</v>
+        <v>83100</v>
       </c>
       <c r="G100" s="3">
-        <v>101300</v>
+        <v>100000</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-34200</v>
+        <v>-33700</v>
       </c>
       <c r="E102" s="3">
-        <v>20600</v>
+        <v>20300</v>
       </c>
       <c r="F102" s="3">
-        <v>-38700</v>
+        <v>-38200</v>
       </c>
       <c r="G102" s="3">
-        <v>49900</v>
+        <v>49300</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/QK_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QK_YR_FIN.xlsx
@@ -718,16 +718,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>186000</v>
+        <v>189100</v>
       </c>
       <c r="E8" s="3">
-        <v>190000</v>
+        <v>193200</v>
       </c>
       <c r="F8" s="3">
-        <v>137000</v>
+        <v>139300</v>
       </c>
       <c r="G8" s="3">
-        <v>80500</v>
+        <v>81800</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
@@ -751,16 +751,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>187500</v>
+        <v>190600</v>
       </c>
       <c r="E9" s="3">
-        <v>207500</v>
+        <v>211000</v>
       </c>
       <c r="F9" s="3">
-        <v>156300</v>
+        <v>158900</v>
       </c>
       <c r="G9" s="3">
-        <v>87400</v>
+        <v>88900</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
@@ -787,13 +787,13 @@
         <v>-1500</v>
       </c>
       <c r="E10" s="3">
-        <v>-17500</v>
+        <v>-17800</v>
       </c>
       <c r="F10" s="3">
-        <v>-19300</v>
+        <v>-19600</v>
       </c>
       <c r="G10" s="3">
-        <v>-6900</v>
+        <v>-7000</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
@@ -832,16 +832,16 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>3800</v>
+        <v>3900</v>
       </c>
       <c r="E12" s="3">
-        <v>7200</v>
+        <v>7400</v>
       </c>
       <c r="F12" s="3">
-        <v>8000</v>
+        <v>8100</v>
       </c>
       <c r="G12" s="3">
-        <v>6800</v>
+        <v>6900</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -898,16 +898,16 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>130400</v>
+        <v>132600</v>
       </c>
       <c r="E14" s="3">
-        <v>7100</v>
+        <v>7200</v>
       </c>
       <c r="F14" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="G14" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
@@ -976,16 +976,16 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>417100</v>
+        <v>424100</v>
       </c>
       <c r="E17" s="3">
-        <v>259000</v>
+        <v>263300</v>
       </c>
       <c r="F17" s="3">
-        <v>202700</v>
+        <v>206100</v>
       </c>
       <c r="G17" s="3">
-        <v>109700</v>
+        <v>111500</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -1009,16 +1009,16 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-231100</v>
+        <v>-235000</v>
       </c>
       <c r="E18" s="3">
-        <v>-69000</v>
+        <v>-70200</v>
       </c>
       <c r="F18" s="3">
-        <v>-65700</v>
+        <v>-66800</v>
       </c>
       <c r="G18" s="3">
-        <v>-29200</v>
+        <v>-29700</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1057,13 +1057,13 @@
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>15000</v>
+        <v>15300</v>
       </c>
       <c r="E20" s="3">
-        <v>6800</v>
+        <v>7000</v>
       </c>
       <c r="F20" s="3">
-        <v>1300</v>
+        <v>1400</v>
       </c>
       <c r="G20" s="3">
         <v>-800</v>
@@ -1090,16 +1090,16 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-175500</v>
+        <v>-178500</v>
       </c>
       <c r="E21" s="3">
-        <v>-29000</v>
+        <v>-29600</v>
       </c>
       <c r="F21" s="3">
-        <v>-40800</v>
+        <v>-41600</v>
       </c>
       <c r="G21" s="3">
-        <v>-14300</v>
+        <v>-14500</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1123,16 +1123,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>20100</v>
+        <v>20400</v>
       </c>
       <c r="E22" s="3">
-        <v>14500</v>
+        <v>14800</v>
       </c>
       <c r="F22" s="3">
-        <v>12300</v>
+        <v>12500</v>
       </c>
       <c r="G22" s="3">
-        <v>7800</v>
+        <v>7900</v>
       </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
@@ -1156,16 +1156,16 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-236100</v>
+        <v>-240100</v>
       </c>
       <c r="E23" s="3">
-        <v>-76700</v>
+        <v>-78000</v>
       </c>
       <c r="F23" s="3">
-        <v>-76600</v>
+        <v>-77900</v>
       </c>
       <c r="G23" s="3">
-        <v>-37700</v>
+        <v>-38300</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1255,16 +1255,16 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-236200</v>
+        <v>-240100</v>
       </c>
       <c r="E26" s="3">
-        <v>-76700</v>
+        <v>-78000</v>
       </c>
       <c r="F26" s="3">
-        <v>-77000</v>
+        <v>-78300</v>
       </c>
       <c r="G26" s="3">
-        <v>-37800</v>
+        <v>-38400</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1288,16 +1288,16 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-236100</v>
+        <v>-240100</v>
       </c>
       <c r="E27" s="3">
-        <v>-124100</v>
+        <v>-126100</v>
       </c>
       <c r="F27" s="3">
-        <v>-97800</v>
+        <v>-99500</v>
       </c>
       <c r="G27" s="3">
-        <v>-46800</v>
+        <v>-47600</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1453,13 +1453,13 @@
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-15000</v>
+        <v>-15300</v>
       </c>
       <c r="E32" s="3">
-        <v>-6800</v>
+        <v>-7000</v>
       </c>
       <c r="F32" s="3">
-        <v>-1300</v>
+        <v>-1400</v>
       </c>
       <c r="G32" s="3">
         <v>800</v>
@@ -1486,16 +1486,16 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-236100</v>
+        <v>-240100</v>
       </c>
       <c r="E33" s="3">
-        <v>-124100</v>
+        <v>-126100</v>
       </c>
       <c r="F33" s="3">
-        <v>-97800</v>
+        <v>-99500</v>
       </c>
       <c r="G33" s="3">
-        <v>-46800</v>
+        <v>-47600</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1552,16 +1552,16 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-236100</v>
+        <v>-240100</v>
       </c>
       <c r="E35" s="3">
-        <v>-124100</v>
+        <v>-126100</v>
       </c>
       <c r="F35" s="3">
-        <v>-97800</v>
+        <v>-99500</v>
       </c>
       <c r="G35" s="3">
-        <v>-46800</v>
+        <v>-47600</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1653,16 +1653,16 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>3500</v>
+        <v>3600</v>
       </c>
       <c r="E41" s="3">
-        <v>24600</v>
+        <v>25000</v>
       </c>
       <c r="F41" s="3">
-        <v>16000</v>
+        <v>16200</v>
       </c>
       <c r="G41" s="3">
-        <v>56200</v>
+        <v>57200</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1719,16 +1719,16 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8300</v>
+        <v>8400</v>
       </c>
       <c r="E43" s="3">
-        <v>33500</v>
+        <v>34000</v>
       </c>
       <c r="F43" s="3">
-        <v>24400</v>
+        <v>24800</v>
       </c>
       <c r="G43" s="3">
-        <v>12700</v>
+        <v>12900</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
@@ -1785,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>19400</v>
+        <v>19800</v>
       </c>
       <c r="E45" s="3">
-        <v>33800</v>
+        <v>34300</v>
       </c>
       <c r="F45" s="3">
-        <v>28600</v>
+        <v>29100</v>
       </c>
       <c r="G45" s="3">
-        <v>14600</v>
+        <v>14800</v>
       </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
@@ -1818,16 +1818,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>31300</v>
+        <v>31800</v>
       </c>
       <c r="E46" s="3">
-        <v>91900</v>
+        <v>93400</v>
       </c>
       <c r="F46" s="3">
-        <v>69000</v>
+        <v>70100</v>
       </c>
       <c r="G46" s="3">
-        <v>83500</v>
+        <v>84900</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1884,16 +1884,16 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>55100</v>
+        <v>56100</v>
       </c>
       <c r="E48" s="3">
-        <v>182500</v>
+        <v>185600</v>
       </c>
       <c r="F48" s="3">
-        <v>203400</v>
+        <v>206800</v>
       </c>
       <c r="G48" s="3">
-        <v>89100</v>
+        <v>90500</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1917,10 +1917,10 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>35800</v>
+        <v>36400</v>
       </c>
       <c r="E49" s="3">
-        <v>1800</v>
+        <v>1900</v>
       </c>
       <c r="F49" s="3">
         <v>1900</v>
@@ -2016,7 +2016,7 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8800</v>
+        <v>8900</v>
       </c>
       <c r="E52" s="3">
         <v>900</v>
@@ -2082,16 +2082,16 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>131000</v>
+        <v>133200</v>
       </c>
       <c r="E54" s="3">
-        <v>277100</v>
+        <v>281800</v>
       </c>
       <c r="F54" s="3">
-        <v>274300</v>
+        <v>278900</v>
       </c>
       <c r="G54" s="3">
-        <v>174600</v>
+        <v>177500</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2145,16 +2145,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>45300</v>
+        <v>46100</v>
       </c>
       <c r="E57" s="3">
-        <v>42700</v>
+        <v>43400</v>
       </c>
       <c r="F57" s="3">
-        <v>66400</v>
+        <v>67500</v>
       </c>
       <c r="G57" s="3">
-        <v>17500</v>
+        <v>17800</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2178,16 +2178,16 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>100100</v>
+        <v>101800</v>
       </c>
       <c r="E58" s="3">
-        <v>165700</v>
+        <v>168400</v>
       </c>
       <c r="F58" s="3">
-        <v>191000</v>
+        <v>194200</v>
       </c>
       <c r="G58" s="3">
-        <v>132100</v>
+        <v>134300</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2211,16 +2211,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>156600</v>
+        <v>159200</v>
       </c>
       <c r="E59" s="3">
-        <v>53000</v>
+        <v>53900</v>
       </c>
       <c r="F59" s="3">
-        <v>46000</v>
+        <v>46800</v>
       </c>
       <c r="G59" s="3">
-        <v>31000</v>
+        <v>31500</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2244,16 +2244,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>302100</v>
+        <v>307100</v>
       </c>
       <c r="E60" s="3">
-        <v>261300</v>
+        <v>265700</v>
       </c>
       <c r="F60" s="3">
-        <v>303300</v>
+        <v>308400</v>
       </c>
       <c r="G60" s="3">
-        <v>180600</v>
+        <v>183700</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2277,16 +2277,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>71900</v>
+        <v>73100</v>
       </c>
       <c r="E61" s="3">
-        <v>66000</v>
+        <v>67100</v>
       </c>
       <c r="F61" s="3">
-        <v>25500</v>
+        <v>25900</v>
       </c>
       <c r="G61" s="3">
-        <v>28100</v>
+        <v>28600</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2310,16 +2310,16 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>64200</v>
+        <v>65300</v>
       </c>
       <c r="E62" s="3">
-        <v>74700</v>
+        <v>76000</v>
       </c>
       <c r="F62" s="3">
-        <v>65500</v>
+        <v>66600</v>
       </c>
       <c r="G62" s="3">
-        <v>31400</v>
+        <v>31900</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2442,16 +2442,16 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>439600</v>
+        <v>446900</v>
       </c>
       <c r="E66" s="3">
-        <v>403500</v>
+        <v>410200</v>
       </c>
       <c r="F66" s="3">
-        <v>397000</v>
+        <v>403700</v>
       </c>
       <c r="G66" s="3">
-        <v>242900</v>
+        <v>247000</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2559,13 +2559,13 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>225000</v>
+        <v>228800</v>
       </c>
       <c r="F70" s="3">
-        <v>104700</v>
+        <v>106400</v>
       </c>
       <c r="G70" s="3">
-        <v>62300</v>
+        <v>63300</v>
       </c>
       <c r="H70" s="3">
         <v>0</v>
@@ -2622,16 +2622,16 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-586600</v>
+        <v>-596400</v>
       </c>
       <c r="E72" s="3">
-        <v>-350400</v>
+        <v>-356300</v>
       </c>
       <c r="F72" s="3">
-        <v>-227700</v>
+        <v>-231500</v>
       </c>
       <c r="G72" s="3">
-        <v>-130200</v>
+        <v>-132300</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2754,16 +2754,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-308600</v>
+        <v>-313800</v>
       </c>
       <c r="E76" s="3">
-        <v>-351300</v>
+        <v>-357300</v>
       </c>
       <c r="F76" s="3">
-        <v>-227400</v>
+        <v>-231200</v>
       </c>
       <c r="G76" s="3">
-        <v>-130600</v>
+        <v>-132800</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2858,16 +2858,16 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-236100</v>
+        <v>-240100</v>
       </c>
       <c r="E81" s="3">
-        <v>-124100</v>
+        <v>-126100</v>
       </c>
       <c r="F81" s="3">
-        <v>-97800</v>
+        <v>-99500</v>
       </c>
       <c r="G81" s="3">
-        <v>-46800</v>
+        <v>-47600</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2906,16 +2906,16 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>40500</v>
+        <v>41200</v>
       </c>
       <c r="E83" s="3">
-        <v>33100</v>
+        <v>33700</v>
       </c>
       <c r="F83" s="3">
-        <v>23500</v>
+        <v>23800</v>
       </c>
       <c r="G83" s="3">
-        <v>15700</v>
+        <v>15900</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -3104,16 +3104,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8400</v>
+        <v>8600</v>
       </c>
       <c r="E89" s="3">
-        <v>-13600</v>
+        <v>-13800</v>
       </c>
       <c r="F89" s="3">
-        <v>-18000</v>
+        <v>-18300</v>
       </c>
       <c r="G89" s="3">
-        <v>-6700</v>
+        <v>-6800</v>
       </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
@@ -3152,16 +3152,16 @@
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15300</v>
+        <v>-15500</v>
       </c>
       <c r="E91" s="3">
-        <v>-52600</v>
+        <v>-53500</v>
       </c>
       <c r="F91" s="3">
-        <v>-103800</v>
+        <v>-105600</v>
       </c>
       <c r="G91" s="3">
-        <v>-44000</v>
+        <v>-44700</v>
       </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
@@ -3251,16 +3251,16 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-21400</v>
+        <v>-21700</v>
       </c>
       <c r="E94" s="3">
-        <v>-54100</v>
+        <v>-55000</v>
       </c>
       <c r="F94" s="3">
-        <v>-103800</v>
+        <v>-105600</v>
       </c>
       <c r="G94" s="3">
-        <v>-44000</v>
+        <v>-44700</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
@@ -3431,16 +3431,16 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-20800</v>
+        <v>-21100</v>
       </c>
       <c r="E100" s="3">
-        <v>87700</v>
+        <v>89200</v>
       </c>
       <c r="F100" s="3">
-        <v>83100</v>
+        <v>84500</v>
       </c>
       <c r="G100" s="3">
-        <v>100000</v>
+        <v>101700</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
@@ -3497,16 +3497,16 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-33700</v>
+        <v>-34300</v>
       </c>
       <c r="E102" s="3">
-        <v>20300</v>
+        <v>20700</v>
       </c>
       <c r="F102" s="3">
-        <v>-38200</v>
+        <v>-38900</v>
       </c>
       <c r="G102" s="3">
-        <v>49300</v>
+        <v>50100</v>
       </c>
       <c r="H102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/QK_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QK_YR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,40 +665,40 @@
     <col min="1" max="1" width="4.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43373</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -711,26 +711,29 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>189100</v>
+        <v>163500</v>
       </c>
       <c r="E8" s="3">
-        <v>193200</v>
+        <v>190600</v>
       </c>
       <c r="F8" s="3">
-        <v>139300</v>
+        <v>194600</v>
       </c>
       <c r="G8" s="3">
-        <v>81800</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
+        <v>140400</v>
+      </c>
+      <c r="H8" s="3">
+        <v>82500</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -744,26 +747,29 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>190600</v>
+        <v>149800</v>
       </c>
       <c r="E9" s="3">
-        <v>211000</v>
+        <v>192100</v>
       </c>
       <c r="F9" s="3">
-        <v>158900</v>
+        <v>212600</v>
       </c>
       <c r="G9" s="3">
-        <v>88900</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>3</v>
+        <v>160100</v>
+      </c>
+      <c r="H9" s="3">
+        <v>89500</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -777,26 +783,29 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E10" s="3">
         <v>-1500</v>
       </c>
-      <c r="E10" s="3">
-        <v>-17800</v>
-      </c>
       <c r="F10" s="3">
-        <v>-19600</v>
+        <v>-18000</v>
       </c>
       <c r="G10" s="3">
-        <v>-7000</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>3</v>
+        <v>-19700</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-7100</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -810,9 +819,12 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -826,25 +838,26 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E12" s="3">
         <v>3900</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7400</v>
       </c>
-      <c r="F12" s="3">
-        <v>8100</v>
-      </c>
       <c r="G12" s="3">
-        <v>6900</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
+        <v>8200</v>
+      </c>
+      <c r="H12" s="3">
+        <v>7000</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -858,9 +871,12 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -891,27 +907,30 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>132600</v>
+        <v>38100</v>
       </c>
       <c r="E14" s="3">
-        <v>7200</v>
+        <v>133600</v>
       </c>
       <c r="F14" s="3">
-        <v>7900</v>
+        <v>7300</v>
       </c>
       <c r="G14" s="3">
+        <v>8000</v>
+      </c>
+      <c r="H14" s="3">
         <v>3600</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
       </c>
@@ -924,9 +943,12 @@
       <c r="L14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -957,9 +979,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -970,25 +995,26 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>424100</v>
+        <v>233100</v>
       </c>
       <c r="E17" s="3">
-        <v>263300</v>
+        <v>427300</v>
       </c>
       <c r="F17" s="3">
-        <v>206100</v>
+        <v>265400</v>
       </c>
       <c r="G17" s="3">
-        <v>111500</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>207700</v>
+      </c>
+      <c r="H17" s="3">
+        <v>112400</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1002,26 +1028,29 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-235000</v>
+        <v>-69700</v>
       </c>
       <c r="E18" s="3">
-        <v>-70200</v>
+        <v>-236800</v>
       </c>
       <c r="F18" s="3">
-        <v>-66800</v>
+        <v>-70700</v>
       </c>
       <c r="G18" s="3">
-        <v>-29700</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>-67300</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-29900</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1035,9 +1064,12 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1051,26 +1083,27 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>15300</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>15400</v>
+      </c>
+      <c r="F20" s="3">
         <v>7000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-800</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1083,26 +1116,29 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-178500</v>
+        <v>-57200</v>
       </c>
       <c r="E21" s="3">
-        <v>-29600</v>
+        <v>-179700</v>
       </c>
       <c r="F21" s="3">
-        <v>-41600</v>
+        <v>-29700</v>
       </c>
       <c r="G21" s="3">
-        <v>-14500</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>-41800</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-14600</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1116,27 +1152,30 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>20400</v>
+        <v>20100</v>
       </c>
       <c r="E22" s="3">
-        <v>14800</v>
+        <v>20600</v>
       </c>
       <c r="F22" s="3">
-        <v>12500</v>
+        <v>14900</v>
       </c>
       <c r="G22" s="3">
+        <v>12600</v>
+      </c>
+      <c r="H22" s="3">
         <v>7900</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1149,26 +1188,29 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-240100</v>
+        <v>-89800</v>
       </c>
       <c r="E23" s="3">
-        <v>-78000</v>
+        <v>-241900</v>
       </c>
       <c r="F23" s="3">
-        <v>-77900</v>
+        <v>-78600</v>
       </c>
       <c r="G23" s="3">
-        <v>-38300</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>-78500</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-38600</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1182,9 +1224,12 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1195,14 +1240,14 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
         <v>400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1215,9 +1260,12 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1248,26 +1296,29 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-240100</v>
+        <v>-89800</v>
       </c>
       <c r="E26" s="3">
-        <v>-78000</v>
+        <v>-241900</v>
       </c>
       <c r="F26" s="3">
-        <v>-78300</v>
+        <v>-78600</v>
       </c>
       <c r="G26" s="3">
-        <v>-38400</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>-78900</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-38700</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1281,26 +1332,29 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-240100</v>
+        <v>-89800</v>
       </c>
       <c r="E27" s="3">
-        <v>-126100</v>
+        <v>-241900</v>
       </c>
       <c r="F27" s="3">
-        <v>-99500</v>
+        <v>-127100</v>
       </c>
       <c r="G27" s="3">
-        <v>-47600</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>-100200</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-48000</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1314,9 +1368,12 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1347,9 +1404,12 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1380,9 +1440,12 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1413,9 +1476,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1446,27 +1512,30 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-15300</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="F32" s="3">
         <v>-7000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>800</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1479,26 +1548,29 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-240100</v>
+        <v>-89800</v>
       </c>
       <c r="E33" s="3">
-        <v>-126100</v>
+        <v>-241900</v>
       </c>
       <c r="F33" s="3">
-        <v>-99500</v>
+        <v>-127100</v>
       </c>
       <c r="G33" s="3">
-        <v>-47600</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>-100200</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-48000</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1512,9 +1584,12 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1545,26 +1620,29 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-240100</v>
+        <v>-89800</v>
       </c>
       <c r="E35" s="3">
-        <v>-126100</v>
+        <v>-241900</v>
       </c>
       <c r="F35" s="3">
-        <v>-99500</v>
+        <v>-127100</v>
       </c>
       <c r="G35" s="3">
-        <v>-47600</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>-100200</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-48000</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1578,32 +1656,35 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43373</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,9 +1697,12 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1632,8 +1716,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1647,25 +1732,26 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E41" s="3">
         <v>3600</v>
       </c>
-      <c r="E41" s="3">
-        <v>25000</v>
-      </c>
       <c r="F41" s="3">
-        <v>16200</v>
+        <v>25200</v>
       </c>
       <c r="G41" s="3">
-        <v>57200</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>16400</v>
+      </c>
+      <c r="H41" s="3">
+        <v>57600</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1679,9 +1765,12 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1712,26 +1801,29 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>8400</v>
+        <v>2100</v>
       </c>
       <c r="E43" s="3">
-        <v>34000</v>
+        <v>8500</v>
       </c>
       <c r="F43" s="3">
-        <v>24800</v>
+        <v>34300</v>
       </c>
       <c r="G43" s="3">
-        <v>12900</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
+        <v>25000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>13000</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1745,9 +1837,12 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1778,26 +1873,29 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>19800</v>
+        <v>23200</v>
       </c>
       <c r="E45" s="3">
-        <v>34300</v>
+        <v>19900</v>
       </c>
       <c r="F45" s="3">
-        <v>29100</v>
+        <v>34600</v>
       </c>
       <c r="G45" s="3">
-        <v>14800</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
+        <v>29300</v>
+      </c>
+      <c r="H45" s="3">
+        <v>14900</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1811,26 +1909,29 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>31800</v>
+        <v>27900</v>
       </c>
       <c r="E46" s="3">
-        <v>93400</v>
+        <v>32000</v>
       </c>
       <c r="F46" s="3">
-        <v>70100</v>
+        <v>94100</v>
       </c>
       <c r="G46" s="3">
-        <v>84900</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>70700</v>
+      </c>
+      <c r="H46" s="3">
+        <v>85500</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1844,9 +1945,12 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1877,26 +1981,29 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>56100</v>
+        <v>6100</v>
       </c>
       <c r="E48" s="3">
-        <v>185600</v>
+        <v>56500</v>
       </c>
       <c r="F48" s="3">
-        <v>206800</v>
+        <v>187000</v>
       </c>
       <c r="G48" s="3">
-        <v>90500</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
+        <v>208400</v>
+      </c>
+      <c r="H48" s="3">
+        <v>91200</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -1910,26 +2017,29 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>36400</v>
+        <v>24100</v>
       </c>
       <c r="E49" s="3">
-        <v>1900</v>
+        <v>36700</v>
       </c>
       <c r="F49" s="3">
         <v>1900</v>
       </c>
       <c r="G49" s="3">
-        <v>2000</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>3</v>
+        <v>1900</v>
+      </c>
+      <c r="H49" s="3">
+        <v>2100</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -1943,9 +2053,12 @@
       <c r="L49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,9 +2089,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2009,26 +2125,29 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>8900</v>
+        <v>1500</v>
       </c>
       <c r="E52" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F52" s="3">
         <v>900</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>100</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2042,9 +2161,12 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2075,26 +2197,29 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>133200</v>
+        <v>59600</v>
       </c>
       <c r="E54" s="3">
-        <v>281800</v>
+        <v>134200</v>
       </c>
       <c r="F54" s="3">
-        <v>278900</v>
+        <v>283900</v>
       </c>
       <c r="G54" s="3">
-        <v>177500</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>281000</v>
+      </c>
+      <c r="H54" s="3">
+        <v>178800</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2108,9 +2233,12 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2124,8 +2252,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2139,25 +2268,26 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>46100</v>
+        <v>50500</v>
       </c>
       <c r="E57" s="3">
-        <v>43400</v>
+        <v>46500</v>
       </c>
       <c r="F57" s="3">
-        <v>67500</v>
+        <v>43700</v>
       </c>
       <c r="G57" s="3">
-        <v>17800</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
+        <v>68000</v>
+      </c>
+      <c r="H57" s="3">
+        <v>18000</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2171,26 +2301,29 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>101800</v>
+        <v>91000</v>
       </c>
       <c r="E58" s="3">
-        <v>168400</v>
+        <v>102600</v>
       </c>
       <c r="F58" s="3">
-        <v>194200</v>
+        <v>169700</v>
       </c>
       <c r="G58" s="3">
-        <v>134300</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+        <v>195600</v>
+      </c>
+      <c r="H58" s="3">
+        <v>135400</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2204,26 +2337,29 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>159200</v>
+        <v>228800</v>
       </c>
       <c r="E59" s="3">
-        <v>53900</v>
+        <v>160400</v>
       </c>
       <c r="F59" s="3">
-        <v>46800</v>
+        <v>54300</v>
       </c>
       <c r="G59" s="3">
-        <v>31500</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>47100</v>
+      </c>
+      <c r="H59" s="3">
+        <v>31800</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2237,26 +2373,29 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>307100</v>
+        <v>370400</v>
       </c>
       <c r="E60" s="3">
-        <v>265700</v>
+        <v>309500</v>
       </c>
       <c r="F60" s="3">
-        <v>308400</v>
+        <v>267700</v>
       </c>
       <c r="G60" s="3">
-        <v>183700</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
+        <v>310800</v>
+      </c>
+      <c r="H60" s="3">
+        <v>185100</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2270,26 +2409,29 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>73100</v>
+        <v>81200</v>
       </c>
       <c r="E61" s="3">
-        <v>67100</v>
+        <v>73600</v>
       </c>
       <c r="F61" s="3">
-        <v>25900</v>
+        <v>67600</v>
       </c>
       <c r="G61" s="3">
-        <v>28600</v>
+        <v>26100</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>28800</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2303,26 +2445,29 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>65300</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>76000</v>
+        <v>65800</v>
       </c>
       <c r="F62" s="3">
-        <v>66600</v>
+        <v>76500</v>
       </c>
       <c r="G62" s="3">
-        <v>31900</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+        <v>67100</v>
+      </c>
+      <c r="H62" s="3">
+        <v>32200</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2336,9 +2481,12 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2369,9 +2517,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2402,9 +2553,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2435,26 +2589,29 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>446900</v>
+        <v>453100</v>
       </c>
       <c r="E66" s="3">
-        <v>410200</v>
+        <v>450400</v>
       </c>
       <c r="F66" s="3">
-        <v>403700</v>
+        <v>413400</v>
       </c>
       <c r="G66" s="3">
-        <v>247000</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>406800</v>
+      </c>
+      <c r="H66" s="3">
+        <v>248900</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2468,9 +2625,12 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2484,8 +2644,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2516,9 +2677,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2549,9 +2713,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2559,16 +2726,16 @@
         <v>0</v>
       </c>
       <c r="E70" s="3">
-        <v>228800</v>
+        <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>106400</v>
+        <v>230500</v>
       </c>
       <c r="G70" s="3">
-        <v>63300</v>
+        <v>107200</v>
       </c>
       <c r="H70" s="3">
-        <v>0</v>
+        <v>63800</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2582,9 +2749,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2615,26 +2785,29 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-596400</v>
+        <v>-690800</v>
       </c>
       <c r="E72" s="3">
-        <v>-356300</v>
+        <v>-601000</v>
       </c>
       <c r="F72" s="3">
-        <v>-231500</v>
+        <v>-359000</v>
       </c>
       <c r="G72" s="3">
-        <v>-132300</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-233200</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-133400</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2648,9 +2821,12 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2681,9 +2857,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2714,9 +2893,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2747,26 +2929,29 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-313800</v>
+        <v>-393500</v>
       </c>
       <c r="E76" s="3">
-        <v>-357300</v>
+        <v>-316200</v>
       </c>
       <c r="F76" s="3">
-        <v>-231200</v>
+        <v>-359900</v>
       </c>
       <c r="G76" s="3">
-        <v>-132800</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>-232900</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-133800</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2780,9 +2965,12 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2813,32 +3001,35 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43373</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2851,26 +3042,29 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-240100</v>
+        <v>-89800</v>
       </c>
       <c r="E81" s="3">
-        <v>-126100</v>
+        <v>-241900</v>
       </c>
       <c r="F81" s="3">
-        <v>-99500</v>
+        <v>-127100</v>
       </c>
       <c r="G81" s="3">
-        <v>-47600</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>-100200</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-48000</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -2884,9 +3078,12 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2900,25 +3097,26 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>41200</v>
+        <v>12500</v>
       </c>
       <c r="E83" s="3">
-        <v>33700</v>
+        <v>41500</v>
       </c>
       <c r="F83" s="3">
-        <v>23800</v>
+        <v>33900</v>
       </c>
       <c r="G83" s="3">
-        <v>15900</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
+        <v>24000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>16100</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -2932,9 +3130,12 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2965,9 +3166,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2998,9 +3202,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3031,9 +3238,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3064,9 +3274,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3097,26 +3310,29 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>8600</v>
+        <v>-17300</v>
       </c>
       <c r="E89" s="3">
-        <v>-13800</v>
+        <v>8700</v>
       </c>
       <c r="F89" s="3">
-        <v>-18300</v>
+        <v>-13900</v>
       </c>
       <c r="G89" s="3">
-        <v>-6800</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
+        <v>-18500</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-6900</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3130,9 +3346,12 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3146,25 +3365,26 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-15500</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-53500</v>
+        <v>-15600</v>
       </c>
       <c r="F91" s="3">
-        <v>-105600</v>
+        <v>-53900</v>
       </c>
       <c r="G91" s="3">
-        <v>-44700</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
+        <v>-106400</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-45000</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3178,9 +3398,12 @@
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3211,9 +3434,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3244,26 +3470,29 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-21700</v>
+        <v>-1000</v>
       </c>
       <c r="E94" s="3">
-        <v>-55000</v>
+        <v>-21900</v>
       </c>
       <c r="F94" s="3">
-        <v>-105600</v>
+        <v>-55400</v>
       </c>
       <c r="G94" s="3">
-        <v>-44700</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
+        <v>-106400</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-45000</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3277,9 +3506,12 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3293,8 +3525,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3325,9 +3558,12 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3358,9 +3594,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3391,9 +3630,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3424,26 +3666,29 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>-21100</v>
+        <v>16000</v>
       </c>
       <c r="E100" s="3">
-        <v>89200</v>
+        <v>-21300</v>
       </c>
       <c r="F100" s="3">
-        <v>84500</v>
+        <v>89900</v>
       </c>
       <c r="G100" s="3">
-        <v>101700</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
+        <v>85100</v>
+      </c>
+      <c r="H100" s="3">
+        <v>102500</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3457,26 +3702,29 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
+      <c r="H101" s="3">
+        <v>0</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>3</v>
@@ -3490,26 +3738,29 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-34300</v>
+        <v>-2000</v>
       </c>
       <c r="E102" s="3">
-        <v>20700</v>
+        <v>-34600</v>
       </c>
       <c r="F102" s="3">
-        <v>-38900</v>
+        <v>20800</v>
       </c>
       <c r="G102" s="3">
-        <v>50100</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
+        <v>-39200</v>
+      </c>
+      <c r="H102" s="3">
+        <v>50500</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
@@ -3523,7 +3774,10 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/QK_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QK_YR_FIN.xlsx
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>163500</v>
+        <v>152700</v>
       </c>
       <c r="E8" s="3">
-        <v>190600</v>
+        <v>178000</v>
       </c>
       <c r="F8" s="3">
-        <v>194600</v>
+        <v>181800</v>
       </c>
       <c r="G8" s="3">
-        <v>140400</v>
+        <v>131100</v>
       </c>
       <c r="H8" s="3">
-        <v>82500</v>
+        <v>77000</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -757,19 +757,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>149800</v>
+        <v>139900</v>
       </c>
       <c r="E9" s="3">
-        <v>192100</v>
+        <v>179400</v>
       </c>
       <c r="F9" s="3">
-        <v>212600</v>
+        <v>198600</v>
       </c>
       <c r="G9" s="3">
-        <v>160100</v>
+        <v>149600</v>
       </c>
       <c r="H9" s="3">
-        <v>89500</v>
+        <v>83600</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -793,19 +793,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>13700</v>
+        <v>12800</v>
       </c>
       <c r="E10" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="F10" s="3">
-        <v>-18000</v>
+        <v>-16800</v>
       </c>
       <c r="G10" s="3">
-        <v>-19700</v>
+        <v>-18400</v>
       </c>
       <c r="H10" s="3">
-        <v>-7100</v>
+        <v>-6600</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -845,19 +845,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="E12" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="F12" s="3">
-        <v>7400</v>
+        <v>6900</v>
       </c>
       <c r="G12" s="3">
-        <v>8200</v>
+        <v>7700</v>
       </c>
       <c r="H12" s="3">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -917,19 +917,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>38100</v>
+        <v>35600</v>
       </c>
       <c r="E14" s="3">
-        <v>133600</v>
+        <v>124800</v>
       </c>
       <c r="F14" s="3">
-        <v>7300</v>
+        <v>6800</v>
       </c>
       <c r="G14" s="3">
-        <v>8000</v>
+        <v>7500</v>
       </c>
       <c r="H14" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>233100</v>
+        <v>217800</v>
       </c>
       <c r="E17" s="3">
-        <v>427300</v>
+        <v>399200</v>
       </c>
       <c r="F17" s="3">
-        <v>265400</v>
+        <v>247900</v>
       </c>
       <c r="G17" s="3">
-        <v>207700</v>
+        <v>194000</v>
       </c>
       <c r="H17" s="3">
-        <v>112400</v>
+        <v>105000</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-69700</v>
+        <v>-65100</v>
       </c>
       <c r="E18" s="3">
-        <v>-236800</v>
+        <v>-221200</v>
       </c>
       <c r="F18" s="3">
-        <v>-70700</v>
+        <v>-66100</v>
       </c>
       <c r="G18" s="3">
-        <v>-67300</v>
+        <v>-62800</v>
       </c>
       <c r="H18" s="3">
-        <v>-29900</v>
+        <v>-27900</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1093,16 +1093,16 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>15400</v>
+        <v>14400</v>
       </c>
       <c r="F20" s="3">
-        <v>7000</v>
+        <v>6500</v>
       </c>
       <c r="G20" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H20" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-57200</v>
+        <v>-53300</v>
       </c>
       <c r="E21" s="3">
-        <v>-179700</v>
+        <v>-167600</v>
       </c>
       <c r="F21" s="3">
-        <v>-29700</v>
+        <v>-27500</v>
       </c>
       <c r="G21" s="3">
-        <v>-41800</v>
+        <v>-38900</v>
       </c>
       <c r="H21" s="3">
-        <v>-14600</v>
+        <v>-13500</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1162,19 +1162,19 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>20100</v>
+        <v>18800</v>
       </c>
       <c r="E22" s="3">
-        <v>20600</v>
+        <v>19200</v>
       </c>
       <c r="F22" s="3">
-        <v>14900</v>
+        <v>13900</v>
       </c>
       <c r="G22" s="3">
-        <v>12600</v>
+        <v>11800</v>
       </c>
       <c r="H22" s="3">
-        <v>7900</v>
+        <v>7400</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-89800</v>
+        <v>-83900</v>
       </c>
       <c r="E23" s="3">
-        <v>-241900</v>
+        <v>-226000</v>
       </c>
       <c r="F23" s="3">
-        <v>-78600</v>
+        <v>-73400</v>
       </c>
       <c r="G23" s="3">
-        <v>-78500</v>
+        <v>-73300</v>
       </c>
       <c r="H23" s="3">
-        <v>-38600</v>
+        <v>-36100</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-89800</v>
+        <v>-83900</v>
       </c>
       <c r="E26" s="3">
-        <v>-241900</v>
+        <v>-226000</v>
       </c>
       <c r="F26" s="3">
-        <v>-78600</v>
+        <v>-73400</v>
       </c>
       <c r="G26" s="3">
-        <v>-78900</v>
+        <v>-73700</v>
       </c>
       <c r="H26" s="3">
-        <v>-38700</v>
+        <v>-36200</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-89800</v>
+        <v>-83900</v>
       </c>
       <c r="E27" s="3">
-        <v>-241900</v>
+        <v>-226000</v>
       </c>
       <c r="F27" s="3">
-        <v>-127100</v>
+        <v>-118700</v>
       </c>
       <c r="G27" s="3">
-        <v>-100200</v>
+        <v>-93600</v>
       </c>
       <c r="H27" s="3">
-        <v>-48000</v>
+        <v>-44800</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1525,16 +1525,16 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>-15400</v>
+        <v>-14400</v>
       </c>
       <c r="F32" s="3">
-        <v>-7000</v>
+        <v>-6500</v>
       </c>
       <c r="G32" s="3">
-        <v>-1400</v>
+        <v>-1300</v>
       </c>
       <c r="H32" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-89800</v>
+        <v>-83900</v>
       </c>
       <c r="E33" s="3">
-        <v>-241900</v>
+        <v>-226000</v>
       </c>
       <c r="F33" s="3">
-        <v>-127100</v>
+        <v>-118700</v>
       </c>
       <c r="G33" s="3">
-        <v>-100200</v>
+        <v>-93600</v>
       </c>
       <c r="H33" s="3">
-        <v>-48000</v>
+        <v>-44800</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-89800</v>
+        <v>-83900</v>
       </c>
       <c r="E35" s="3">
-        <v>-241900</v>
+        <v>-226000</v>
       </c>
       <c r="F35" s="3">
-        <v>-127100</v>
+        <v>-118700</v>
       </c>
       <c r="G35" s="3">
-        <v>-100200</v>
+        <v>-93600</v>
       </c>
       <c r="H35" s="3">
-        <v>-48000</v>
+        <v>-44800</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1739,19 +1739,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="E41" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="F41" s="3">
-        <v>25200</v>
+        <v>23500</v>
       </c>
       <c r="G41" s="3">
-        <v>16400</v>
+        <v>15300</v>
       </c>
       <c r="H41" s="3">
-        <v>57600</v>
+        <v>53800</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1811,19 +1811,19 @@
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E43" s="3">
-        <v>8500</v>
+        <v>7900</v>
       </c>
       <c r="F43" s="3">
-        <v>34300</v>
+        <v>32000</v>
       </c>
       <c r="G43" s="3">
-        <v>25000</v>
+        <v>23400</v>
       </c>
       <c r="H43" s="3">
-        <v>13000</v>
+        <v>12100</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>23200</v>
+        <v>21600</v>
       </c>
       <c r="E45" s="3">
-        <v>19900</v>
+        <v>18600</v>
       </c>
       <c r="F45" s="3">
-        <v>34600</v>
+        <v>32300</v>
       </c>
       <c r="G45" s="3">
-        <v>29300</v>
+        <v>27400</v>
       </c>
       <c r="H45" s="3">
-        <v>14900</v>
+        <v>14000</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>27900</v>
+        <v>26000</v>
       </c>
       <c r="E46" s="3">
-        <v>32000</v>
+        <v>29900</v>
       </c>
       <c r="F46" s="3">
-        <v>94100</v>
+        <v>87900</v>
       </c>
       <c r="G46" s="3">
-        <v>70700</v>
+        <v>66000</v>
       </c>
       <c r="H46" s="3">
-        <v>85500</v>
+        <v>79900</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1991,19 +1991,19 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6100</v>
+        <v>5700</v>
       </c>
       <c r="E48" s="3">
-        <v>56500</v>
+        <v>52800</v>
       </c>
       <c r="F48" s="3">
-        <v>187000</v>
+        <v>174700</v>
       </c>
       <c r="G48" s="3">
-        <v>208400</v>
+        <v>194600</v>
       </c>
       <c r="H48" s="3">
-        <v>91200</v>
+        <v>85200</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2027,19 +2027,19 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>24100</v>
+        <v>22500</v>
       </c>
       <c r="E49" s="3">
-        <v>36700</v>
+        <v>34300</v>
       </c>
       <c r="F49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1800</v>
+      </c>
+      <c r="H49" s="3">
         <v>1900</v>
-      </c>
-      <c r="G49" s="3">
-        <v>1900</v>
-      </c>
-      <c r="H49" s="3">
-        <v>2100</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>3</v>
@@ -2135,10 +2135,10 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E52" s="3">
-        <v>9000</v>
+        <v>8400</v>
       </c>
       <c r="F52" s="3">
         <v>900</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>59600</v>
+        <v>55600</v>
       </c>
       <c r="E54" s="3">
-        <v>134200</v>
+        <v>125400</v>
       </c>
       <c r="F54" s="3">
-        <v>283900</v>
+        <v>265200</v>
       </c>
       <c r="G54" s="3">
-        <v>281000</v>
+        <v>262500</v>
       </c>
       <c r="H54" s="3">
-        <v>178800</v>
+        <v>167000</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>50500</v>
+        <v>47200</v>
       </c>
       <c r="E57" s="3">
-        <v>46500</v>
+        <v>43400</v>
       </c>
       <c r="F57" s="3">
-        <v>43700</v>
+        <v>40800</v>
       </c>
       <c r="G57" s="3">
-        <v>68000</v>
+        <v>63500</v>
       </c>
       <c r="H57" s="3">
-        <v>18000</v>
+        <v>16800</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2311,19 +2311,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>91000</v>
+        <v>85000</v>
       </c>
       <c r="E58" s="3">
-        <v>102600</v>
+        <v>95800</v>
       </c>
       <c r="F58" s="3">
-        <v>169700</v>
+        <v>158500</v>
       </c>
       <c r="G58" s="3">
-        <v>195600</v>
+        <v>182700</v>
       </c>
       <c r="H58" s="3">
-        <v>135400</v>
+        <v>126400</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>228800</v>
+        <v>213800</v>
       </c>
       <c r="E59" s="3">
-        <v>160400</v>
+        <v>149900</v>
       </c>
       <c r="F59" s="3">
-        <v>54300</v>
+        <v>50700</v>
       </c>
       <c r="G59" s="3">
-        <v>47100</v>
+        <v>44000</v>
       </c>
       <c r="H59" s="3">
-        <v>31800</v>
+        <v>29700</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>370400</v>
+        <v>345900</v>
       </c>
       <c r="E60" s="3">
-        <v>309500</v>
+        <v>289100</v>
       </c>
       <c r="F60" s="3">
-        <v>267700</v>
+        <v>250100</v>
       </c>
       <c r="G60" s="3">
-        <v>310800</v>
+        <v>290300</v>
       </c>
       <c r="H60" s="3">
-        <v>185100</v>
+        <v>172900</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2419,19 +2419,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>81200</v>
+        <v>75900</v>
       </c>
       <c r="E61" s="3">
-        <v>73600</v>
+        <v>68800</v>
       </c>
       <c r="F61" s="3">
-        <v>67600</v>
+        <v>63100</v>
       </c>
       <c r="G61" s="3">
-        <v>26100</v>
+        <v>24400</v>
       </c>
       <c r="H61" s="3">
-        <v>28800</v>
+        <v>26900</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2458,16 +2458,16 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>65800</v>
+        <v>61400</v>
       </c>
       <c r="F62" s="3">
-        <v>76500</v>
+        <v>71500</v>
       </c>
       <c r="G62" s="3">
-        <v>67100</v>
+        <v>62700</v>
       </c>
       <c r="H62" s="3">
-        <v>32200</v>
+        <v>30000</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>453100</v>
+        <v>423200</v>
       </c>
       <c r="E66" s="3">
-        <v>450400</v>
+        <v>420700</v>
       </c>
       <c r="F66" s="3">
-        <v>413400</v>
+        <v>386100</v>
       </c>
       <c r="G66" s="3">
-        <v>406800</v>
+        <v>379900</v>
       </c>
       <c r="H66" s="3">
-        <v>248900</v>
+        <v>232400</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2729,13 +2729,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>230500</v>
+        <v>215300</v>
       </c>
       <c r="G70" s="3">
-        <v>107200</v>
+        <v>100200</v>
       </c>
       <c r="H70" s="3">
-        <v>63800</v>
+        <v>59600</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-690800</v>
+        <v>-645200</v>
       </c>
       <c r="E72" s="3">
-        <v>-601000</v>
+        <v>-561400</v>
       </c>
       <c r="F72" s="3">
-        <v>-359000</v>
+        <v>-335400</v>
       </c>
       <c r="G72" s="3">
-        <v>-233200</v>
+        <v>-217900</v>
       </c>
       <c r="H72" s="3">
-        <v>-133400</v>
+        <v>-124600</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-393500</v>
+        <v>-367600</v>
       </c>
       <c r="E76" s="3">
-        <v>-316200</v>
+        <v>-295300</v>
       </c>
       <c r="F76" s="3">
-        <v>-359900</v>
+        <v>-336200</v>
       </c>
       <c r="G76" s="3">
-        <v>-232900</v>
+        <v>-217600</v>
       </c>
       <c r="H76" s="3">
-        <v>-133800</v>
+        <v>-125000</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-89800</v>
+        <v>-83900</v>
       </c>
       <c r="E81" s="3">
-        <v>-241900</v>
+        <v>-226000</v>
       </c>
       <c r="F81" s="3">
-        <v>-127100</v>
+        <v>-118700</v>
       </c>
       <c r="G81" s="3">
-        <v>-100200</v>
+        <v>-93600</v>
       </c>
       <c r="H81" s="3">
-        <v>-48000</v>
+        <v>-44800</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>12500</v>
+        <v>11700</v>
       </c>
       <c r="E83" s="3">
-        <v>41500</v>
+        <v>38800</v>
       </c>
       <c r="F83" s="3">
-        <v>33900</v>
+        <v>31700</v>
       </c>
       <c r="G83" s="3">
-        <v>24000</v>
+        <v>22400</v>
       </c>
       <c r="H83" s="3">
-        <v>16100</v>
+        <v>15000</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3320,19 +3320,19 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-17300</v>
+        <v>-16200</v>
       </c>
       <c r="E89" s="3">
-        <v>8700</v>
+        <v>8100</v>
       </c>
       <c r="F89" s="3">
-        <v>-13900</v>
+        <v>-13000</v>
       </c>
       <c r="G89" s="3">
-        <v>-18500</v>
+        <v>-17200</v>
       </c>
       <c r="H89" s="3">
-        <v>-6900</v>
+        <v>-6400</v>
       </c>
       <c r="I89" s="3" t="s">
         <v>3</v>
@@ -3375,16 +3375,16 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-15600</v>
+        <v>-14600</v>
       </c>
       <c r="F91" s="3">
-        <v>-53900</v>
+        <v>-50400</v>
       </c>
       <c r="G91" s="3">
-        <v>-106400</v>
+        <v>-99400</v>
       </c>
       <c r="H91" s="3">
-        <v>-45000</v>
+        <v>-42100</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3483,16 +3483,16 @@
         <v>-1000</v>
       </c>
       <c r="E94" s="3">
-        <v>-21900</v>
+        <v>-20400</v>
       </c>
       <c r="F94" s="3">
-        <v>-55400</v>
+        <v>-51800</v>
       </c>
       <c r="G94" s="3">
-        <v>-106400</v>
+        <v>-99400</v>
       </c>
       <c r="H94" s="3">
-        <v>-45000</v>
+        <v>-42100</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="E100" s="3">
-        <v>-21300</v>
+        <v>-19900</v>
       </c>
       <c r="F100" s="3">
-        <v>89900</v>
+        <v>83900</v>
       </c>
       <c r="G100" s="3">
-        <v>85100</v>
+        <v>79500</v>
       </c>
       <c r="H100" s="3">
-        <v>102500</v>
+        <v>95700</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3748,19 +3748,19 @@
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-2000</v>
+        <v>-1800</v>
       </c>
       <c r="E102" s="3">
-        <v>-34600</v>
+        <v>-32300</v>
       </c>
       <c r="F102" s="3">
-        <v>20800</v>
+        <v>19500</v>
       </c>
       <c r="G102" s="3">
-        <v>-39200</v>
+        <v>-36600</v>
       </c>
       <c r="H102" s="3">
-        <v>50500</v>
+        <v>47200</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Yearly/QK_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/QK_YR_FIN.xlsx
@@ -721,19 +721,19 @@
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>152700</v>
+        <v>151300</v>
       </c>
       <c r="E8" s="3">
-        <v>178000</v>
+        <v>176400</v>
       </c>
       <c r="F8" s="3">
-        <v>181800</v>
+        <v>180200</v>
       </c>
       <c r="G8" s="3">
-        <v>131100</v>
+        <v>130000</v>
       </c>
       <c r="H8" s="3">
-        <v>77000</v>
+        <v>76300</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
@@ -757,19 +757,19 @@
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>139900</v>
+        <v>138700</v>
       </c>
       <c r="E9" s="3">
-        <v>179400</v>
+        <v>177800</v>
       </c>
       <c r="F9" s="3">
-        <v>198600</v>
+        <v>196800</v>
       </c>
       <c r="G9" s="3">
-        <v>149600</v>
+        <v>148200</v>
       </c>
       <c r="H9" s="3">
-        <v>83600</v>
+        <v>82900</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>3</v>
@@ -793,19 +793,19 @@
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>12800</v>
+        <v>12600</v>
       </c>
       <c r="E10" s="3">
         <v>-1400</v>
       </c>
       <c r="F10" s="3">
-        <v>-16800</v>
+        <v>-16600</v>
       </c>
       <c r="G10" s="3">
-        <v>-18400</v>
+        <v>-18300</v>
       </c>
       <c r="H10" s="3">
-        <v>-6600</v>
+        <v>-6500</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>3</v>
@@ -848,16 +848,16 @@
         <v>1100</v>
       </c>
       <c r="E12" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="F12" s="3">
         <v>6900</v>
       </c>
       <c r="G12" s="3">
-        <v>7700</v>
+        <v>7600</v>
       </c>
       <c r="H12" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -917,19 +917,19 @@
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>35600</v>
+        <v>35300</v>
       </c>
       <c r="E14" s="3">
-        <v>124800</v>
+        <v>123700</v>
       </c>
       <c r="F14" s="3">
-        <v>6800</v>
+        <v>6700</v>
       </c>
       <c r="G14" s="3">
-        <v>7500</v>
+        <v>7400</v>
       </c>
       <c r="H14" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>3</v>
@@ -1002,19 +1002,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>217800</v>
+        <v>215800</v>
       </c>
       <c r="E17" s="3">
-        <v>399200</v>
+        <v>395600</v>
       </c>
       <c r="F17" s="3">
-        <v>247900</v>
+        <v>245600</v>
       </c>
       <c r="G17" s="3">
-        <v>194000</v>
+        <v>192200</v>
       </c>
       <c r="H17" s="3">
-        <v>105000</v>
+        <v>104000</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1038,19 +1038,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-65100</v>
+        <v>-64500</v>
       </c>
       <c r="E18" s="3">
-        <v>-221200</v>
+        <v>-219200</v>
       </c>
       <c r="F18" s="3">
-        <v>-66100</v>
+        <v>-65500</v>
       </c>
       <c r="G18" s="3">
-        <v>-62800</v>
+        <v>-62300</v>
       </c>
       <c r="H18" s="3">
-        <v>-27900</v>
+        <v>-27700</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>14400</v>
+        <v>14300</v>
       </c>
       <c r="F20" s="3">
         <v>6500</v>
@@ -1126,19 +1126,19 @@
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-53300</v>
+        <v>-53000</v>
       </c>
       <c r="E21" s="3">
-        <v>-167600</v>
+        <v>-166500</v>
       </c>
       <c r="F21" s="3">
-        <v>-27500</v>
+        <v>-27600</v>
       </c>
       <c r="G21" s="3">
-        <v>-38900</v>
+        <v>-38800</v>
       </c>
       <c r="H21" s="3">
-        <v>-13500</v>
+        <v>-13600</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1162,16 +1162,16 @@
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>18800</v>
+        <v>18600</v>
       </c>
       <c r="E22" s="3">
-        <v>19200</v>
+        <v>19100</v>
       </c>
       <c r="F22" s="3">
-        <v>13900</v>
+        <v>13800</v>
       </c>
       <c r="G22" s="3">
-        <v>11800</v>
+        <v>11600</v>
       </c>
       <c r="H22" s="3">
         <v>7400</v>
@@ -1198,19 +1198,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-83900</v>
+        <v>-83100</v>
       </c>
       <c r="E23" s="3">
-        <v>-226000</v>
+        <v>-224000</v>
       </c>
       <c r="F23" s="3">
-        <v>-73400</v>
+        <v>-72800</v>
       </c>
       <c r="G23" s="3">
-        <v>-73300</v>
+        <v>-72700</v>
       </c>
       <c r="H23" s="3">
-        <v>-36100</v>
+        <v>-35800</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="H24" s="3">
         <v>100</v>
@@ -1306,19 +1306,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-83900</v>
+        <v>-83100</v>
       </c>
       <c r="E26" s="3">
-        <v>-226000</v>
+        <v>-224000</v>
       </c>
       <c r="F26" s="3">
-        <v>-73400</v>
+        <v>-72800</v>
       </c>
       <c r="G26" s="3">
-        <v>-73700</v>
+        <v>-73000</v>
       </c>
       <c r="H26" s="3">
-        <v>-36200</v>
+        <v>-35800</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-83900</v>
+        <v>-83100</v>
       </c>
       <c r="E27" s="3">
-        <v>-226000</v>
+        <v>-224000</v>
       </c>
       <c r="F27" s="3">
-        <v>-118700</v>
+        <v>-117600</v>
       </c>
       <c r="G27" s="3">
-        <v>-93600</v>
+        <v>-92800</v>
       </c>
       <c r="H27" s="3">
-        <v>-44800</v>
+        <v>-44400</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1525,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>-14400</v>
+        <v>-14300</v>
       </c>
       <c r="F32" s="3">
         <v>-6500</v>
@@ -1558,19 +1558,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-83900</v>
+        <v>-83100</v>
       </c>
       <c r="E33" s="3">
-        <v>-226000</v>
+        <v>-224000</v>
       </c>
       <c r="F33" s="3">
-        <v>-118700</v>
+        <v>-117600</v>
       </c>
       <c r="G33" s="3">
-        <v>-93600</v>
+        <v>-92800</v>
       </c>
       <c r="H33" s="3">
-        <v>-44800</v>
+        <v>-44400</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1630,19 +1630,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-83900</v>
+        <v>-83100</v>
       </c>
       <c r="E35" s="3">
-        <v>-226000</v>
+        <v>-224000</v>
       </c>
       <c r="F35" s="3">
-        <v>-118700</v>
+        <v>-117600</v>
       </c>
       <c r="G35" s="3">
-        <v>-93600</v>
+        <v>-92800</v>
       </c>
       <c r="H35" s="3">
-        <v>-44800</v>
+        <v>-44400</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1742,16 +1742,16 @@
         <v>2400</v>
       </c>
       <c r="E41" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="F41" s="3">
-        <v>23500</v>
+        <v>23300</v>
       </c>
       <c r="G41" s="3">
-        <v>15300</v>
+        <v>15200</v>
       </c>
       <c r="H41" s="3">
-        <v>53800</v>
+        <v>53300</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1817,13 +1817,13 @@
         <v>7900</v>
       </c>
       <c r="F43" s="3">
-        <v>32000</v>
+        <v>31800</v>
       </c>
       <c r="G43" s="3">
-        <v>23400</v>
+        <v>23100</v>
       </c>
       <c r="H43" s="3">
-        <v>12100</v>
+        <v>12000</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1883,19 +1883,19 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>21600</v>
+        <v>21400</v>
       </c>
       <c r="E45" s="3">
-        <v>18600</v>
+        <v>18400</v>
       </c>
       <c r="F45" s="3">
-        <v>32300</v>
+        <v>32000</v>
       </c>
       <c r="G45" s="3">
-        <v>27400</v>
+        <v>27100</v>
       </c>
       <c r="H45" s="3">
-        <v>14000</v>
+        <v>13800</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
@@ -1919,19 +1919,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>26000</v>
+        <v>25800</v>
       </c>
       <c r="E46" s="3">
-        <v>29900</v>
+        <v>29600</v>
       </c>
       <c r="F46" s="3">
-        <v>87900</v>
+        <v>87100</v>
       </c>
       <c r="G46" s="3">
-        <v>66000</v>
+        <v>65400</v>
       </c>
       <c r="H46" s="3">
-        <v>79900</v>
+        <v>79200</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1994,16 +1994,16 @@
         <v>5700</v>
       </c>
       <c r="E48" s="3">
-        <v>52800</v>
+        <v>52300</v>
       </c>
       <c r="F48" s="3">
-        <v>174700</v>
+        <v>173100</v>
       </c>
       <c r="G48" s="3">
-        <v>194600</v>
+        <v>192900</v>
       </c>
       <c r="H48" s="3">
-        <v>85200</v>
+        <v>84500</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2027,13 +2027,13 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>22500</v>
+        <v>22300</v>
       </c>
       <c r="E49" s="3">
-        <v>34300</v>
+        <v>34000</v>
       </c>
       <c r="F49" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="G49" s="3">
         <v>1800</v>
@@ -2138,7 +2138,7 @@
         <v>1400</v>
       </c>
       <c r="E52" s="3">
-        <v>8400</v>
+        <v>8300</v>
       </c>
       <c r="F52" s="3">
         <v>900</v>
@@ -2207,19 +2207,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>55600</v>
+        <v>55100</v>
       </c>
       <c r="E54" s="3">
-        <v>125400</v>
+        <v>124200</v>
       </c>
       <c r="F54" s="3">
-        <v>265200</v>
+        <v>262800</v>
       </c>
       <c r="G54" s="3">
-        <v>262500</v>
+        <v>260100</v>
       </c>
       <c r="H54" s="3">
-        <v>167000</v>
+        <v>165500</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2275,19 +2275,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>47200</v>
+        <v>46800</v>
       </c>
       <c r="E57" s="3">
-        <v>43400</v>
+        <v>43000</v>
       </c>
       <c r="F57" s="3">
-        <v>40800</v>
+        <v>40500</v>
       </c>
       <c r="G57" s="3">
-        <v>63500</v>
+        <v>62900</v>
       </c>
       <c r="H57" s="3">
-        <v>16800</v>
+        <v>16600</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2311,19 +2311,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>85000</v>
+        <v>84200</v>
       </c>
       <c r="E58" s="3">
-        <v>95800</v>
+        <v>95000</v>
       </c>
       <c r="F58" s="3">
-        <v>158500</v>
+        <v>157100</v>
       </c>
       <c r="G58" s="3">
-        <v>182700</v>
+        <v>181100</v>
       </c>
       <c r="H58" s="3">
-        <v>126400</v>
+        <v>125300</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2347,19 +2347,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>213800</v>
+        <v>211800</v>
       </c>
       <c r="E59" s="3">
-        <v>149900</v>
+        <v>148500</v>
       </c>
       <c r="F59" s="3">
-        <v>50700</v>
+        <v>50300</v>
       </c>
       <c r="G59" s="3">
-        <v>44000</v>
+        <v>43600</v>
       </c>
       <c r="H59" s="3">
-        <v>29700</v>
+        <v>29400</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2383,19 +2383,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>345900</v>
+        <v>342800</v>
       </c>
       <c r="E60" s="3">
-        <v>289100</v>
+        <v>286500</v>
       </c>
       <c r="F60" s="3">
-        <v>250100</v>
+        <v>247800</v>
       </c>
       <c r="G60" s="3">
-        <v>290300</v>
+        <v>287700</v>
       </c>
       <c r="H60" s="3">
-        <v>172900</v>
+        <v>171300</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2419,19 +2419,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>75900</v>
+        <v>75200</v>
       </c>
       <c r="E61" s="3">
-        <v>68800</v>
+        <v>68100</v>
       </c>
       <c r="F61" s="3">
-        <v>63100</v>
+        <v>62600</v>
       </c>
       <c r="G61" s="3">
-        <v>24400</v>
+        <v>24200</v>
       </c>
       <c r="H61" s="3">
-        <v>26900</v>
+        <v>26700</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2458,16 +2458,16 @@
         <v>0</v>
       </c>
       <c r="E62" s="3">
-        <v>61400</v>
+        <v>60900</v>
       </c>
       <c r="F62" s="3">
-        <v>71500</v>
+        <v>70800</v>
       </c>
       <c r="G62" s="3">
-        <v>62700</v>
+        <v>62100</v>
       </c>
       <c r="H62" s="3">
-        <v>30000</v>
+        <v>29800</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2599,19 +2599,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>423200</v>
+        <v>419400</v>
       </c>
       <c r="E66" s="3">
-        <v>420700</v>
+        <v>416900</v>
       </c>
       <c r="F66" s="3">
-        <v>386100</v>
+        <v>382600</v>
       </c>
       <c r="G66" s="3">
-        <v>379900</v>
+        <v>376500</v>
       </c>
       <c r="H66" s="3">
-        <v>232400</v>
+        <v>230300</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2729,13 +2729,13 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>215300</v>
+        <v>213400</v>
       </c>
       <c r="G70" s="3">
-        <v>100200</v>
+        <v>99300</v>
       </c>
       <c r="H70" s="3">
-        <v>59600</v>
+        <v>59000</v>
       </c>
       <c r="I70" s="3">
         <v>0</v>
@@ -2795,19 +2795,19 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-645200</v>
+        <v>-639400</v>
       </c>
       <c r="E72" s="3">
-        <v>-561400</v>
+        <v>-556300</v>
       </c>
       <c r="F72" s="3">
-        <v>-335400</v>
+        <v>-332400</v>
       </c>
       <c r="G72" s="3">
-        <v>-217900</v>
+        <v>-215900</v>
       </c>
       <c r="H72" s="3">
-        <v>-124600</v>
+        <v>-123400</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2939,19 +2939,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-367600</v>
+        <v>-364300</v>
       </c>
       <c r="E76" s="3">
-        <v>-295300</v>
+        <v>-292700</v>
       </c>
       <c r="F76" s="3">
-        <v>-336200</v>
+        <v>-333200</v>
       </c>
       <c r="G76" s="3">
-        <v>-217600</v>
+        <v>-215700</v>
       </c>
       <c r="H76" s="3">
-        <v>-125000</v>
+        <v>-123800</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3052,19 +3052,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-83900</v>
+        <v>-83100</v>
       </c>
       <c r="E81" s="3">
-        <v>-226000</v>
+        <v>-224000</v>
       </c>
       <c r="F81" s="3">
-        <v>-118700</v>
+        <v>-117600</v>
       </c>
       <c r="G81" s="3">
-        <v>-93600</v>
+        <v>-92800</v>
       </c>
       <c r="H81" s="3">
-        <v>-44800</v>
+        <v>-44400</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3104,19 +3104,19 @@
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>11700</v>
+        <v>11600</v>
       </c>
       <c r="E83" s="3">
-        <v>38800</v>
+        <v>38400</v>
       </c>
       <c r="F83" s="3">
-        <v>31700</v>
+        <v>31400</v>
       </c>
       <c r="G83" s="3">
-        <v>22400</v>
+        <v>22200</v>
       </c>
       <c r="H83" s="3">
-        <v>15000</v>
+        <v>14900</v>
       </c>
       <c r="I83" s="3" t="s">
         <v>3</v>
@@ -3320,16 +3320,16 @@
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-16200</v>
+        <v>-16000</v>
       </c>
       <c r="E89" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="F89" s="3">
-        <v>-13000</v>
+        <v>-12900</v>
       </c>
       <c r="G89" s="3">
-        <v>-17200</v>
+        <v>-17100</v>
       </c>
       <c r="H89" s="3">
         <v>-6400</v>
@@ -3375,16 +3375,16 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-14600</v>
+        <v>-14500</v>
       </c>
       <c r="F91" s="3">
-        <v>-50400</v>
+        <v>-49900</v>
       </c>
       <c r="G91" s="3">
-        <v>-99400</v>
+        <v>-98500</v>
       </c>
       <c r="H91" s="3">
-        <v>-42100</v>
+        <v>-41700</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>3</v>
@@ -3480,19 +3480,19 @@
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1000</v>
+        <v>-900</v>
       </c>
       <c r="E94" s="3">
-        <v>-20400</v>
+        <v>-20200</v>
       </c>
       <c r="F94" s="3">
-        <v>-51800</v>
+        <v>-51300</v>
       </c>
       <c r="G94" s="3">
-        <v>-99400</v>
+        <v>-98500</v>
       </c>
       <c r="H94" s="3">
-        <v>-42100</v>
+        <v>-41700</v>
       </c>
       <c r="I94" s="3" t="s">
         <v>3</v>
@@ -3676,19 +3676,19 @@
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>15000</v>
+        <v>14800</v>
       </c>
       <c r="E100" s="3">
-        <v>-19900</v>
+        <v>-19700</v>
       </c>
       <c r="F100" s="3">
-        <v>83900</v>
+        <v>83200</v>
       </c>
       <c r="G100" s="3">
-        <v>79500</v>
+        <v>78800</v>
       </c>
       <c r="H100" s="3">
-        <v>95700</v>
+        <v>94800</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>3</v>
@@ -3751,16 +3751,16 @@
         <v>-1800</v>
       </c>
       <c r="E102" s="3">
-        <v>-32300</v>
+        <v>-32000</v>
       </c>
       <c r="F102" s="3">
-        <v>19500</v>
+        <v>19300</v>
       </c>
       <c r="G102" s="3">
-        <v>-36600</v>
+        <v>-36300</v>
       </c>
       <c r="H102" s="3">
-        <v>47200</v>
+        <v>46700</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>3</v>
